--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B08545-EB09-469D-863E-622CF731EC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81158123-2870-4399-834E-655F08FB9DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB43EC1-6C37-4963-A907-D0FC8549B5D4}">
   <dimension ref="A1:CW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BS51" sqref="BS51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BH55" sqref="BH55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9957,9 +9957,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
-      <c r="BB53" s="11">
-        <v>8</v>
-      </c>
+      <c r="BB53" s="1"/>
       <c r="BC53" s="1"/>
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
@@ -10147,7 +10145,9 @@
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
-      <c r="BC54" s="1"/>
+      <c r="BC54" s="11">
+        <v>8</v>
+      </c>
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B08545-EB09-469D-863E-622CF731EC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07695739-439B-44DD-A588-D3BBC6A31DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
+    <workbookView xWindow="38280" yWindow="2805" windowWidth="29040" windowHeight="15840" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB43EC1-6C37-4963-A907-D0FC8549B5D4}">
   <dimension ref="A1:CW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BS51" sqref="BS51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="CQ46" sqref="CQ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8673,10 +8673,10 @@
       <c r="CP46" s="1">
         <v>2</v>
       </c>
-      <c r="CQ46" s="1">
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1">
         <v>3</v>
       </c>
-      <c r="CR46" s="1"/>
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
@@ -9957,9 +9957,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
-      <c r="BB53" s="11">
-        <v>8</v>
-      </c>
+      <c r="BB53" s="1"/>
       <c r="BC53" s="1"/>
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
@@ -10147,7 +10145,9 @@
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
-      <c r="BC54" s="1"/>
+      <c r="BC54" s="11">
+        <v>8</v>
+      </c>
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
       <c r="BF54" s="1"/>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFD6AD3-60CB-4615-8EC0-DCFE253F66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141E0C9-ABEE-4DF6-A50A-F9822D6037BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <dimension ref="A1:FW151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="FW32" sqref="FV32:FW32"/>
+      <selection activeCell="IQ14" sqref="IQ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1"/>
@@ -4565,7 +4565,9 @@
       <c r="CE14" s="13"/>
       <c r="CF14" s="13"/>
       <c r="CG14" s="13"/>
-      <c r="CH14" s="13"/>
+      <c r="CH14" s="12">
+        <v>6</v>
+      </c>
       <c r="CI14" s="13"/>
       <c r="CJ14" s="13"/>
       <c r="CK14" s="13"/>
@@ -4938,7 +4940,9 @@
       <c r="DD16" s="13"/>
       <c r="DE16" s="13"/>
       <c r="DF16" s="13"/>
-      <c r="DG16" s="13"/>
+      <c r="DG16" s="12">
+        <v>6</v>
+      </c>
       <c r="DH16" s="13"/>
       <c r="DI16" s="13"/>
       <c r="DJ16" s="13"/>
@@ -5934,7 +5938,9 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
       <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
+      <c r="AC22" s="12">
+        <v>6</v>
+      </c>
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
@@ -6935,7 +6941,9 @@
       <c r="DQ26" s="13"/>
       <c r="DR26" s="13"/>
       <c r="DS26" s="13"/>
-      <c r="DT26" s="13"/>
+      <c r="DT26" s="12">
+        <v>6</v>
+      </c>
       <c r="DU26" s="13"/>
       <c r="DV26" s="13"/>
       <c r="DW26" s="13"/>
@@ -8541,7 +8549,9 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
+      <c r="T33" s="12">
+        <v>6</v>
+      </c>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
@@ -12696,7 +12706,9 @@
       <c r="CE48" s="13"/>
       <c r="CF48" s="13"/>
       <c r="CG48" s="13"/>
-      <c r="CH48" s="13"/>
+      <c r="CH48" s="12">
+        <v>6</v>
+      </c>
       <c r="CI48" s="13"/>
       <c r="CJ48" s="13"/>
       <c r="CK48" s="13"/>
@@ -19268,7 +19280,9 @@
       <c r="CV79" s="1"/>
       <c r="CW79" s="1"/>
       <c r="CX79" s="13"/>
-      <c r="CY79" s="13"/>
+      <c r="CY79" s="12">
+        <v>6</v>
+      </c>
       <c r="CZ79" s="13"/>
       <c r="DA79" s="13"/>
       <c r="DB79" s="13"/>
@@ -19499,7 +19513,9 @@
       <c r="BF80" s="13"/>
       <c r="BG80" s="13"/>
       <c r="BH80" s="13"/>
-      <c r="BI80" s="13"/>
+      <c r="BI80" s="12">
+        <v>6</v>
+      </c>
       <c r="BJ80" s="13"/>
       <c r="BK80" s="13"/>
       <c r="BL80" s="13"/>
@@ -22322,7 +22338,9 @@
       <c r="W90" s="13"/>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
-      <c r="Z90" s="13"/>
+      <c r="Z90" s="12">
+        <v>6</v>
+      </c>
       <c r="AA90" s="13"/>
       <c r="AB90" s="13"/>
       <c r="AC90" s="13"/>
@@ -22449,7 +22467,9 @@
       <c r="CN90" s="13"/>
       <c r="CO90" s="13"/>
       <c r="CP90" s="13"/>
-      <c r="CQ90" s="13"/>
+      <c r="CQ90" s="12">
+        <v>6</v>
+      </c>
       <c r="CR90" s="13"/>
       <c r="CS90" s="13"/>
       <c r="CT90" s="13"/>
@@ -24118,7 +24138,9 @@
       <c r="BF97" s="13"/>
       <c r="BG97" s="13"/>
       <c r="BH97" s="13"/>
-      <c r="BI97" s="13"/>
+      <c r="BI97" s="12">
+        <v>6</v>
+      </c>
       <c r="BJ97" s="13"/>
       <c r="BK97" s="13"/>
       <c r="BL97" s="13"/>
@@ -24711,7 +24733,9 @@
       <c r="CG99" s="13"/>
       <c r="CH99" s="13"/>
       <c r="CI99" s="13"/>
-      <c r="CJ99" s="13"/>
+      <c r="CJ99" s="12">
+        <v>6</v>
+      </c>
       <c r="CK99" s="13"/>
       <c r="CL99" s="13"/>
       <c r="CM99" s="13"/>
@@ -27082,9 +27106,7 @@
       <c r="AC108" s="13"/>
       <c r="AD108" s="13"/>
       <c r="AE108" s="13"/>
-      <c r="AF108" s="9">
-        <v>5</v>
-      </c>
+      <c r="AF108" s="9"/>
       <c r="AG108" s="13">
         <v>2</v>
       </c>
@@ -29211,7 +29233,9 @@
       <c r="CG115" s="13"/>
       <c r="CH115" s="13"/>
       <c r="CI115" s="13"/>
-      <c r="CJ115" s="13"/>
+      <c r="CJ115" s="12">
+        <v>6</v>
+      </c>
       <c r="CK115" s="13"/>
       <c r="CL115" s="13"/>
       <c r="CM115" s="13"/>
@@ -31131,7 +31155,9 @@
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
       <c r="P124" s="13"/>
-      <c r="Q124" s="13"/>
+      <c r="Q124" s="12">
+        <v>6</v>
+      </c>
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
       <c r="T124" s="13"/>
@@ -31158,7 +31184,9 @@
       <c r="AO124" s="13"/>
       <c r="AP124" s="13"/>
       <c r="AQ124" s="13"/>
-      <c r="AR124" s="13"/>
+      <c r="AR124" s="12">
+        <v>6</v>
+      </c>
       <c r="AS124" s="13"/>
       <c r="AT124" s="13"/>
       <c r="AU124" s="13"/>
@@ -31741,7 +31769,9 @@
       <c r="BU127" s="13"/>
       <c r="BV127" s="13"/>
       <c r="BW127" s="13"/>
-      <c r="BX127" s="13"/>
+      <c r="BX127" s="12">
+        <v>6</v>
+      </c>
       <c r="BY127" s="13"/>
       <c r="BZ127" s="13"/>
       <c r="CA127" s="13"/>
@@ -34485,7 +34515,9 @@
       <c r="BG138" s="13"/>
       <c r="BH138" s="13"/>
       <c r="BI138" s="13"/>
-      <c r="BJ138" s="13"/>
+      <c r="BJ138" s="12">
+        <v>6</v>
+      </c>
       <c r="BK138" s="13"/>
       <c r="BL138" s="13"/>
       <c r="BM138" s="13"/>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\GitHub\end-game\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB1CD0-DDED-40CA-ADEA-DA7654BE4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD51B66-D939-41DB-ACCD-76CD0FE386AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
@@ -72,25 +72,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -112,7 +112,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -280,63 +280,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -700,20 +644,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7A455-E458-4910-86BA-8861EB05555A}">
-  <dimension ref="A1:FW152"/>
+  <dimension ref="A1:FL146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DZ118" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="FN133" sqref="FN133"/>
+    <sheetView tabSelected="1" topLeftCell="BO68" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="EC78" sqref="EC78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.25" style="17" customWidth="1"/>
-    <col min="2" max="141" width="10.25" customWidth="1"/>
-    <col min="142" max="151" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="130" width="10.25" customWidth="1"/>
+    <col min="131" max="140" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" s="17" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:130" s="17" customFormat="1" ht="27.95" customHeight="1">
       <c r="A1" s="18">
         <v>2</v>
       </c>
@@ -1104,23 +1048,8 @@
       <c r="DZ1" s="1">
         <v>1</v>
       </c>
-      <c r="EA1" s="1">
-        <v>1</v>
-      </c>
-      <c r="EB1" s="1">
-        <v>1</v>
-      </c>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
     </row>
-    <row r="2" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:130" ht="60.75" customHeight="1">
       <c r="A2" s="18">
         <v>2</v>
       </c>
@@ -1390,22 +1319,11 @@
       <c r="DW2" s="1"/>
       <c r="DX2" s="1"/>
       <c r="DY2" s="1"/>
-      <c r="DZ2" s="1"/>
-      <c r="EA2" s="1"/>
-      <c r="EB2" s="1">
+      <c r="DZ2" s="1">
         <v>1</v>
       </c>
-      <c r="EC2" s="1"/>
-      <c r="ED2" s="1"/>
-      <c r="EE2" s="1"/>
-      <c r="EF2" s="1"/>
-      <c r="EG2" s="1"/>
-      <c r="EH2" s="1"/>
-      <c r="EI2" s="1"/>
-      <c r="EJ2" s="1"/>
-      <c r="EK2" s="1"/>
     </row>
-    <row r="3" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:130" ht="60.75" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1679,22 +1597,11 @@
       <c r="DW3" s="13"/>
       <c r="DX3" s="13"/>
       <c r="DY3" s="13"/>
-      <c r="DZ3" s="13"/>
-      <c r="EA3" s="13"/>
-      <c r="EB3" s="13">
+      <c r="DZ3" s="13">
         <v>1</v>
       </c>
-      <c r="EC3" s="13"/>
-      <c r="ED3" s="13"/>
-      <c r="EE3" s="13"/>
-      <c r="EF3" s="13"/>
-      <c r="EG3" s="13"/>
-      <c r="EH3" s="13"/>
-      <c r="EI3" s="1"/>
-      <c r="EJ3" s="1"/>
-      <c r="EK3" s="1"/>
     </row>
-    <row r="4" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:130" ht="60.75" customHeight="1">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1964,22 +1871,11 @@
       <c r="DW4" s="13"/>
       <c r="DX4" s="13"/>
       <c r="DY4" s="13"/>
-      <c r="DZ4" s="13"/>
-      <c r="EA4" s="13"/>
-      <c r="EB4" s="13">
+      <c r="DZ4" s="13">
         <v>1</v>
       </c>
-      <c r="EC4" s="13"/>
-      <c r="ED4" s="13"/>
-      <c r="EE4" s="13"/>
-      <c r="EF4" s="13"/>
-      <c r="EG4" s="13"/>
-      <c r="EH4" s="13"/>
-      <c r="EI4" s="1"/>
-      <c r="EJ4" s="1"/>
-      <c r="EK4" s="1"/>
     </row>
-    <row r="5" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:130" ht="60.75" customHeight="1">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -2249,22 +2145,11 @@
       <c r="DW5" s="13"/>
       <c r="DX5" s="13"/>
       <c r="DY5" s="13"/>
-      <c r="DZ5" s="13"/>
-      <c r="EA5" s="13"/>
-      <c r="EB5" s="13">
+      <c r="DZ5" s="13">
         <v>1</v>
       </c>
-      <c r="EC5" s="13"/>
-      <c r="ED5" s="13"/>
-      <c r="EE5" s="13"/>
-      <c r="EF5" s="13"/>
-      <c r="EG5" s="13"/>
-      <c r="EH5" s="13"/>
-      <c r="EI5" s="1"/>
-      <c r="EJ5" s="1"/>
-      <c r="EK5" s="1"/>
     </row>
-    <row r="6" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:130" ht="60.75" customHeight="1">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -2534,22 +2419,11 @@
       <c r="DW6" s="13"/>
       <c r="DX6" s="13"/>
       <c r="DY6" s="13"/>
-      <c r="DZ6" s="13"/>
-      <c r="EA6" s="13"/>
-      <c r="EB6" s="13">
+      <c r="DZ6" s="13">
         <v>1</v>
       </c>
-      <c r="EC6" s="13"/>
-      <c r="ED6" s="13"/>
-      <c r="EE6" s="13"/>
-      <c r="EF6" s="13"/>
-      <c r="EG6" s="13"/>
-      <c r="EH6" s="13"/>
-      <c r="EI6" s="1"/>
-      <c r="EJ6" s="1"/>
-      <c r="EK6" s="1"/>
     </row>
-    <row r="7" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:130" ht="60.75" customHeight="1">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -2779,22 +2653,11 @@
       <c r="DW7" s="13"/>
       <c r="DX7" s="13"/>
       <c r="DY7" s="13"/>
-      <c r="DZ7" s="13"/>
-      <c r="EA7" s="13"/>
-      <c r="EB7" s="13">
+      <c r="DZ7" s="13">
         <v>1</v>
       </c>
-      <c r="EC7" s="13"/>
-      <c r="ED7" s="13"/>
-      <c r="EE7" s="13"/>
-      <c r="EF7" s="13"/>
-      <c r="EG7" s="13"/>
-      <c r="EH7" s="13"/>
-      <c r="EI7" s="1"/>
-      <c r="EJ7" s="1"/>
-      <c r="EK7" s="1"/>
     </row>
-    <row r="8" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:130" ht="60.75" customHeight="1">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -3026,22 +2889,11 @@
       <c r="DW8" s="13"/>
       <c r="DX8" s="13"/>
       <c r="DY8" s="13"/>
-      <c r="DZ8" s="13"/>
-      <c r="EA8" s="13"/>
-      <c r="EB8" s="13">
+      <c r="DZ8" s="13">
         <v>1</v>
       </c>
-      <c r="EC8" s="13"/>
-      <c r="ED8" s="13"/>
-      <c r="EE8" s="13"/>
-      <c r="EF8" s="13"/>
-      <c r="EG8" s="13"/>
-      <c r="EH8" s="13"/>
-      <c r="EI8" s="1"/>
-      <c r="EJ8" s="1"/>
-      <c r="EK8" s="1"/>
     </row>
-    <row r="9" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:130" ht="60.75" customHeight="1">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -3271,22 +3123,11 @@
       <c r="DW9" s="13"/>
       <c r="DX9" s="13"/>
       <c r="DY9" s="13"/>
-      <c r="DZ9" s="13"/>
-      <c r="EA9" s="13"/>
-      <c r="EB9" s="13">
+      <c r="DZ9" s="13">
         <v>1</v>
       </c>
-      <c r="EC9" s="13"/>
-      <c r="ED9" s="13"/>
-      <c r="EE9" s="13"/>
-      <c r="EF9" s="13"/>
-      <c r="EG9" s="13"/>
-      <c r="EH9" s="13"/>
-      <c r="EI9" s="1"/>
-      <c r="EJ9" s="1"/>
-      <c r="EK9" s="1"/>
     </row>
-    <row r="10" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:130" ht="60.75" customHeight="1">
       <c r="A10" s="18">
         <v>2</v>
       </c>
@@ -3518,22 +3359,11 @@
       <c r="DW10" s="13"/>
       <c r="DX10" s="13"/>
       <c r="DY10" s="13"/>
-      <c r="DZ10" s="13"/>
-      <c r="EA10" s="13"/>
-      <c r="EB10" s="13">
+      <c r="DZ10" s="13">
         <v>1</v>
       </c>
-      <c r="EC10" s="13"/>
-      <c r="ED10" s="13"/>
-      <c r="EE10" s="13"/>
-      <c r="EF10" s="13"/>
-      <c r="EG10" s="13"/>
-      <c r="EH10" s="13"/>
-      <c r="EI10" s="1"/>
-      <c r="EJ10" s="1"/>
-      <c r="EK10" s="1"/>
     </row>
-    <row r="11" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:130" ht="60.75" customHeight="1">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -3763,22 +3593,11 @@
       <c r="DW11" s="13"/>
       <c r="DX11" s="13"/>
       <c r="DY11" s="13"/>
-      <c r="DZ11" s="13"/>
-      <c r="EA11" s="13"/>
-      <c r="EB11" s="13">
+      <c r="DZ11" s="13">
         <v>1</v>
       </c>
-      <c r="EC11" s="13"/>
-      <c r="ED11" s="13"/>
-      <c r="EE11" s="13"/>
-      <c r="EF11" s="13"/>
-      <c r="EG11" s="13"/>
-      <c r="EH11" s="13"/>
-      <c r="EI11" s="1"/>
-      <c r="EJ11" s="1"/>
-      <c r="EK11" s="1"/>
     </row>
-    <row r="12" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:130" ht="60.75" customHeight="1">
       <c r="A12" s="18">
         <v>2</v>
       </c>
@@ -4008,22 +3827,11 @@
       <c r="DW12" s="13"/>
       <c r="DX12" s="13"/>
       <c r="DY12" s="13"/>
-      <c r="DZ12" s="13"/>
-      <c r="EA12" s="13"/>
-      <c r="EB12" s="13">
+      <c r="DZ12" s="13">
         <v>1</v>
       </c>
-      <c r="EC12" s="13"/>
-      <c r="ED12" s="13"/>
-      <c r="EE12" s="13"/>
-      <c r="EF12" s="13"/>
-      <c r="EG12" s="13"/>
-      <c r="EH12" s="13"/>
-      <c r="EI12" s="1"/>
-      <c r="EJ12" s="1"/>
-      <c r="EK12" s="1"/>
     </row>
-    <row r="13" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:130" ht="60.75" customHeight="1">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -4181,22 +3989,11 @@
       <c r="DW13" s="13"/>
       <c r="DX13" s="13"/>
       <c r="DY13" s="13"/>
-      <c r="DZ13" s="13"/>
-      <c r="EA13" s="13"/>
-      <c r="EB13" s="13">
+      <c r="DZ13" s="13">
         <v>1</v>
       </c>
-      <c r="EC13" s="13"/>
-      <c r="ED13" s="13"/>
-      <c r="EE13" s="13"/>
-      <c r="EF13" s="13"/>
-      <c r="EG13" s="13"/>
-      <c r="EH13" s="13"/>
-      <c r="EI13" s="1"/>
-      <c r="EJ13" s="1"/>
-      <c r="EK13" s="1"/>
     </row>
-    <row r="14" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:130" ht="60.75" customHeight="1">
       <c r="A14" s="18">
         <v>2</v>
       </c>
@@ -4354,22 +4151,11 @@
       <c r="DW14" s="13"/>
       <c r="DX14" s="13"/>
       <c r="DY14" s="13"/>
-      <c r="DZ14" s="13"/>
-      <c r="EA14" s="13"/>
-      <c r="EB14" s="13">
+      <c r="DZ14" s="13">
         <v>1</v>
       </c>
-      <c r="EC14" s="13"/>
-      <c r="ED14" s="13"/>
-      <c r="EE14" s="13"/>
-      <c r="EF14" s="13"/>
-      <c r="EG14" s="13"/>
-      <c r="EH14" s="13"/>
-      <c r="EI14" s="1"/>
-      <c r="EJ14" s="1"/>
-      <c r="EK14" s="1"/>
     </row>
-    <row r="15" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:130" ht="60.75" customHeight="1">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -4527,22 +4313,11 @@
       <c r="DW15" s="13"/>
       <c r="DX15" s="13"/>
       <c r="DY15" s="13"/>
-      <c r="DZ15" s="13"/>
-      <c r="EA15" s="13"/>
-      <c r="EB15" s="13">
+      <c r="DZ15" s="13">
         <v>1</v>
       </c>
-      <c r="EC15" s="13"/>
-      <c r="ED15" s="13"/>
-      <c r="EE15" s="13"/>
-      <c r="EF15" s="13"/>
-      <c r="EG15" s="13"/>
-      <c r="EH15" s="13"/>
-      <c r="EI15" s="1"/>
-      <c r="EJ15" s="1"/>
-      <c r="EK15" s="1"/>
     </row>
-    <row r="16" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:130" ht="60.75" customHeight="1">
       <c r="A16" s="18">
         <v>2</v>
       </c>
@@ -4698,22 +4473,11 @@
       <c r="DW16" s="13"/>
       <c r="DX16" s="13"/>
       <c r="DY16" s="13"/>
-      <c r="DZ16" s="13"/>
-      <c r="EA16" s="13"/>
-      <c r="EB16" s="13">
+      <c r="DZ16" s="13">
         <v>1</v>
       </c>
-      <c r="EC16" s="13"/>
-      <c r="ED16" s="13"/>
-      <c r="EE16" s="13"/>
-      <c r="EF16" s="13"/>
-      <c r="EG16" s="13"/>
-      <c r="EH16" s="13"/>
-      <c r="EI16" s="1"/>
-      <c r="EJ16" s="1"/>
-      <c r="EK16" s="1"/>
     </row>
-    <row r="17" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:168" ht="60.75" customHeight="1">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -4869,22 +4633,11 @@
       <c r="DW17" s="13"/>
       <c r="DX17" s="13"/>
       <c r="DY17" s="13"/>
-      <c r="DZ17" s="13"/>
-      <c r="EA17" s="13"/>
-      <c r="EB17" s="13">
+      <c r="DZ17" s="13">
         <v>1</v>
       </c>
-      <c r="EC17" s="13"/>
-      <c r="ED17" s="13"/>
-      <c r="EE17" s="13"/>
-      <c r="EF17" s="13"/>
-      <c r="EG17" s="13"/>
-      <c r="EH17" s="13"/>
-      <c r="EI17" s="1"/>
-      <c r="EJ17" s="1"/>
-      <c r="EK17" s="1"/>
     </row>
-    <row r="18" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:168" ht="60.75" customHeight="1">
       <c r="A18" s="18">
         <v>2</v>
       </c>
@@ -5050,22 +4803,11 @@
       <c r="DW18" s="13"/>
       <c r="DX18" s="13"/>
       <c r="DY18" s="13"/>
-      <c r="DZ18" s="13"/>
-      <c r="EA18" s="13"/>
-      <c r="EB18" s="13">
+      <c r="DZ18" s="13">
         <v>1</v>
       </c>
-      <c r="EC18" s="13"/>
-      <c r="ED18" s="13"/>
-      <c r="EE18" s="13"/>
-      <c r="EF18" s="13"/>
-      <c r="EG18" s="13"/>
-      <c r="EH18" s="13"/>
-      <c r="EI18" s="1"/>
-      <c r="EJ18" s="1"/>
-      <c r="EK18" s="1"/>
     </row>
-    <row r="19" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:168" ht="60.75" customHeight="1">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -5231,22 +4973,11 @@
       <c r="DW19" s="13"/>
       <c r="DX19" s="13"/>
       <c r="DY19" s="13"/>
-      <c r="DZ19" s="13"/>
-      <c r="EA19" s="13"/>
-      <c r="EB19" s="13">
+      <c r="DZ19" s="13">
         <v>1</v>
       </c>
-      <c r="EC19" s="13"/>
-      <c r="ED19" s="13"/>
-      <c r="EE19" s="13"/>
-      <c r="EF19" s="13"/>
-      <c r="EG19" s="13"/>
-      <c r="EH19" s="13"/>
-      <c r="EI19" s="1"/>
-      <c r="EJ19" s="1"/>
-      <c r="EK19" s="1"/>
     </row>
-    <row r="20" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:168" ht="60.75" customHeight="1">
       <c r="A20" s="18">
         <v>2</v>
       </c>
@@ -5412,22 +5143,11 @@
       <c r="DW20" s="13"/>
       <c r="DX20" s="13"/>
       <c r="DY20" s="13"/>
-      <c r="DZ20" s="13"/>
-      <c r="EA20" s="13"/>
-      <c r="EB20" s="13">
+      <c r="DZ20" s="13">
         <v>1</v>
       </c>
-      <c r="EC20" s="13"/>
-      <c r="ED20" s="13"/>
-      <c r="EE20" s="13"/>
-      <c r="EF20" s="13"/>
-      <c r="EG20" s="13"/>
-      <c r="EH20" s="13"/>
-      <c r="EI20" s="1"/>
-      <c r="EJ20" s="1"/>
-      <c r="EK20" s="1"/>
     </row>
-    <row r="21" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:168" ht="60.75" customHeight="1">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -5595,22 +5315,11 @@
       <c r="DW21" s="13"/>
       <c r="DX21" s="13"/>
       <c r="DY21" s="13"/>
-      <c r="DZ21" s="13"/>
-      <c r="EA21" s="13"/>
-      <c r="EB21" s="13">
+      <c r="DZ21" s="13">
         <v>1</v>
       </c>
-      <c r="EC21" s="13"/>
-      <c r="ED21" s="13"/>
-      <c r="EE21" s="13"/>
-      <c r="EF21" s="13"/>
-      <c r="EG21" s="13"/>
-      <c r="EH21" s="13"/>
-      <c r="EI21" s="1"/>
-      <c r="EJ21" s="1"/>
-      <c r="EK21" s="1"/>
     </row>
-    <row r="22" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:168" ht="60.75" customHeight="1">
       <c r="A22" s="18">
         <v>2</v>
       </c>
@@ -5778,22 +5487,11 @@
       <c r="DW22" s="13"/>
       <c r="DX22" s="13"/>
       <c r="DY22" s="13"/>
-      <c r="DZ22" s="13"/>
-      <c r="EA22" s="13"/>
-      <c r="EB22" s="13">
+      <c r="DZ22" s="13">
         <v>1</v>
       </c>
-      <c r="EC22" s="13"/>
-      <c r="ED22" s="13"/>
-      <c r="EE22" s="13"/>
-      <c r="EF22" s="13"/>
-      <c r="EG22" s="13"/>
-      <c r="EH22" s="13"/>
-      <c r="EI22" s="1"/>
-      <c r="EJ22" s="1"/>
-      <c r="EK22" s="1"/>
     </row>
-    <row r="23" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:168" ht="60.75" customHeight="1">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -6009,22 +5707,11 @@
       <c r="DW23" s="13"/>
       <c r="DX23" s="13"/>
       <c r="DY23" s="13"/>
-      <c r="DZ23" s="13"/>
-      <c r="EA23" s="13"/>
-      <c r="EB23" s="13">
+      <c r="DZ23" s="13">
         <v>1</v>
       </c>
-      <c r="EC23" s="13"/>
-      <c r="ED23" s="13"/>
-      <c r="EE23" s="13"/>
-      <c r="EF23" s="13"/>
-      <c r="EG23" s="13"/>
-      <c r="EH23" s="13"/>
-      <c r="EI23" s="1"/>
-      <c r="EJ23" s="1"/>
-      <c r="EK23" s="1"/>
     </row>
-    <row r="24" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:168" ht="60.75" customHeight="1">
       <c r="A24" s="18">
         <v>2</v>
       </c>
@@ -6240,22 +5927,11 @@
       <c r="DW24" s="13"/>
       <c r="DX24" s="13"/>
       <c r="DY24" s="13"/>
-      <c r="DZ24" s="13"/>
-      <c r="EA24" s="13"/>
-      <c r="EB24" s="13">
+      <c r="DZ24" s="13">
         <v>1</v>
       </c>
-      <c r="EC24" s="13"/>
-      <c r="ED24" s="13"/>
-      <c r="EE24" s="13"/>
-      <c r="EF24" s="13"/>
-      <c r="EG24" s="13"/>
-      <c r="EH24" s="13"/>
-      <c r="EI24" s="1"/>
-      <c r="EJ24" s="1"/>
-      <c r="EK24" s="1"/>
     </row>
-    <row r="25" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:168" ht="60.75" customHeight="1">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -6495,22 +6171,11 @@
       <c r="DW25" s="13"/>
       <c r="DX25" s="13"/>
       <c r="DY25" s="13"/>
-      <c r="DZ25" s="13"/>
-      <c r="EA25" s="13"/>
-      <c r="EB25" s="13">
+      <c r="DZ25" s="13">
         <v>1</v>
       </c>
-      <c r="EC25" s="13"/>
-      <c r="ED25" s="13"/>
-      <c r="EE25" s="13"/>
-      <c r="EF25" s="13"/>
-      <c r="EG25" s="13"/>
-      <c r="EH25" s="13"/>
-      <c r="EI25" s="1"/>
-      <c r="EJ25" s="1"/>
-      <c r="EK25" s="1"/>
     </row>
-    <row r="26" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:168" ht="60.75" customHeight="1">
       <c r="A26" s="18">
         <v>2</v>
       </c>
@@ -6750,22 +6415,11 @@
       <c r="DW26" s="13"/>
       <c r="DX26" s="13"/>
       <c r="DY26" s="13"/>
-      <c r="DZ26" s="13"/>
-      <c r="EA26" s="13"/>
-      <c r="EB26" s="13">
+      <c r="DZ26" s="13">
         <v>1</v>
       </c>
-      <c r="EC26" s="13"/>
-      <c r="ED26" s="13"/>
-      <c r="EE26" s="13"/>
-      <c r="EF26" s="13"/>
-      <c r="EG26" s="13"/>
-      <c r="EH26" s="13"/>
-      <c r="EI26" s="1"/>
-      <c r="EJ26" s="1"/>
-      <c r="EK26" s="1"/>
     </row>
-    <row r="27" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:168" ht="60.75" customHeight="1">
       <c r="A27" s="18">
         <v>2</v>
       </c>
@@ -7003,23 +6657,12 @@
       <c r="DW27" s="13"/>
       <c r="DX27" s="13"/>
       <c r="DY27" s="13"/>
-      <c r="DZ27" s="13"/>
-      <c r="EA27" s="13"/>
-      <c r="EB27" s="13">
+      <c r="DZ27" s="13">
         <v>1</v>
       </c>
-      <c r="EC27" s="13"/>
-      <c r="ED27" s="13"/>
-      <c r="EE27" s="13"/>
-      <c r="EF27" s="13"/>
-      <c r="EG27" s="13"/>
-      <c r="EH27" s="13"/>
-      <c r="EI27" s="1"/>
-      <c r="EJ27" s="1"/>
-      <c r="EK27" s="1"/>
-      <c r="FW27" s="14"/>
+      <c r="FL27" s="14"/>
     </row>
-    <row r="28" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:168" ht="60.75" customHeight="1">
       <c r="A28" s="18">
         <v>2</v>
       </c>
@@ -7236,7 +6879,9 @@
       <c r="DH28" s="13">
         <v>2</v>
       </c>
-      <c r="DI28" s="13"/>
+      <c r="DI28" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ28" s="13"/>
       <c r="DK28" s="13"/>
       <c r="DL28" s="13"/>
@@ -7253,22 +6898,11 @@
       <c r="DW28" s="13"/>
       <c r="DX28" s="13"/>
       <c r="DY28" s="13"/>
-      <c r="DZ28" s="13"/>
-      <c r="EA28" s="13"/>
-      <c r="EB28" s="13">
+      <c r="DZ28" s="13">
         <v>1</v>
       </c>
-      <c r="EC28" s="13"/>
-      <c r="ED28" s="13"/>
-      <c r="EE28" s="13"/>
-      <c r="EF28" s="13"/>
-      <c r="EG28" s="13"/>
-      <c r="EH28" s="13"/>
-      <c r="EI28" s="1"/>
-      <c r="EJ28" s="1"/>
-      <c r="EK28" s="1"/>
     </row>
-    <row r="29" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:168" ht="60.75" customHeight="1">
       <c r="A29" s="18">
         <v>2</v>
       </c>
@@ -7491,7 +7125,9 @@
       <c r="DH29" s="13">
         <v>2</v>
       </c>
-      <c r="DI29" s="13"/>
+      <c r="DI29" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ29" s="13"/>
       <c r="DK29" s="13"/>
       <c r="DL29" s="13"/>
@@ -7508,22 +7144,11 @@
       <c r="DW29" s="13"/>
       <c r="DX29" s="13"/>
       <c r="DY29" s="13"/>
-      <c r="DZ29" s="13"/>
-      <c r="EA29" s="13"/>
-      <c r="EB29" s="13">
+      <c r="DZ29" s="13">
         <v>1</v>
       </c>
-      <c r="EC29" s="13"/>
-      <c r="ED29" s="13"/>
-      <c r="EE29" s="13"/>
-      <c r="EF29" s="13"/>
-      <c r="EG29" s="13"/>
-      <c r="EH29" s="13"/>
-      <c r="EI29" s="1"/>
-      <c r="EJ29" s="1"/>
-      <c r="EK29" s="1"/>
     </row>
-    <row r="30" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:168" ht="60.75" customHeight="1">
       <c r="A30" s="18">
         <v>2</v>
       </c>
@@ -7746,7 +7371,9 @@
       <c r="DH30" s="13">
         <v>2</v>
       </c>
-      <c r="DI30" s="13"/>
+      <c r="DI30" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ30" s="13"/>
       <c r="DK30" s="13"/>
       <c r="DL30" s="13"/>
@@ -7763,22 +7390,11 @@
       <c r="DW30" s="13"/>
       <c r="DX30" s="13"/>
       <c r="DY30" s="13"/>
-      <c r="DZ30" s="13"/>
-      <c r="EA30" s="13"/>
-      <c r="EB30" s="13">
+      <c r="DZ30" s="13">
         <v>1</v>
       </c>
-      <c r="EC30" s="13"/>
-      <c r="ED30" s="13"/>
-      <c r="EE30" s="13"/>
-      <c r="EF30" s="13"/>
-      <c r="EG30" s="13"/>
-      <c r="EH30" s="13"/>
-      <c r="EI30" s="1"/>
-      <c r="EJ30" s="1"/>
-      <c r="EK30" s="1"/>
     </row>
-    <row r="31" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:168" ht="60.75" customHeight="1">
       <c r="A31" s="18">
         <v>2</v>
       </c>
@@ -8001,7 +7617,9 @@
       <c r="DH31" s="13">
         <v>2</v>
       </c>
-      <c r="DI31" s="13"/>
+      <c r="DI31" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ31" s="13"/>
       <c r="DK31" s="13"/>
       <c r="DL31" s="13"/>
@@ -8018,22 +7636,11 @@
       <c r="DW31" s="13"/>
       <c r="DX31" s="13"/>
       <c r="DY31" s="13"/>
-      <c r="DZ31" s="13"/>
-      <c r="EA31" s="13"/>
-      <c r="EB31" s="13">
+      <c r="DZ31" s="13">
         <v>1</v>
       </c>
-      <c r="EC31" s="13"/>
-      <c r="ED31" s="13"/>
-      <c r="EE31" s="13"/>
-      <c r="EF31" s="13"/>
-      <c r="EG31" s="13"/>
-      <c r="EH31" s="13"/>
-      <c r="EI31" s="1"/>
-      <c r="EJ31" s="1"/>
-      <c r="EK31" s="1"/>
     </row>
-    <row r="32" spans="1:179" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:168" ht="60.75" customHeight="1">
       <c r="A32" s="18">
         <v>2</v>
       </c>
@@ -8258,7 +7865,9 @@
       <c r="DH32" s="13">
         <v>2</v>
       </c>
-      <c r="DI32" s="13"/>
+      <c r="DI32" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ32" s="13"/>
       <c r="DK32" s="13"/>
       <c r="DL32" s="13"/>
@@ -8275,22 +7884,11 @@
       <c r="DW32" s="13"/>
       <c r="DX32" s="13"/>
       <c r="DY32" s="13"/>
-      <c r="DZ32" s="13"/>
-      <c r="EA32" s="13"/>
-      <c r="EB32" s="13">
+      <c r="DZ32" s="13">
         <v>1</v>
       </c>
-      <c r="EC32" s="13"/>
-      <c r="ED32" s="13"/>
-      <c r="EE32" s="13"/>
-      <c r="EF32" s="13"/>
-      <c r="EG32" s="13"/>
-      <c r="EH32" s="13"/>
-      <c r="EI32" s="1"/>
-      <c r="EJ32" s="1"/>
-      <c r="EK32" s="1"/>
     </row>
-    <row r="33" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:130" ht="60.75" customHeight="1">
       <c r="A33" s="18">
         <v>2</v>
       </c>
@@ -8499,7 +8097,9 @@
       <c r="DH33" s="13">
         <v>2</v>
       </c>
-      <c r="DI33" s="13"/>
+      <c r="DI33" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ33" s="13"/>
       <c r="DK33" s="13"/>
       <c r="DL33" s="13"/>
@@ -8518,22 +8118,11 @@
       <c r="DW33" s="13"/>
       <c r="DX33" s="13"/>
       <c r="DY33" s="13"/>
-      <c r="DZ33" s="13"/>
-      <c r="EA33" s="13"/>
-      <c r="EB33" s="13">
+      <c r="DZ33" s="13">
         <v>1</v>
       </c>
-      <c r="EC33" s="13"/>
-      <c r="ED33" s="13"/>
-      <c r="EE33" s="13"/>
-      <c r="EF33" s="13"/>
-      <c r="EG33" s="13"/>
-      <c r="EH33" s="13"/>
-      <c r="EI33" s="1"/>
-      <c r="EJ33" s="1"/>
-      <c r="EK33" s="1"/>
     </row>
-    <row r="34" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:130" ht="60.75" customHeight="1">
       <c r="A34" s="18">
         <v>2</v>
       </c>
@@ -8764,7 +8353,9 @@
       <c r="DH34" s="13">
         <v>2</v>
       </c>
-      <c r="DI34" s="13"/>
+      <c r="DI34" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ34" s="13"/>
       <c r="DK34" s="13"/>
       <c r="DL34" s="13"/>
@@ -8783,22 +8374,11 @@
       <c r="DW34" s="13"/>
       <c r="DX34" s="13"/>
       <c r="DY34" s="13"/>
-      <c r="DZ34" s="13"/>
-      <c r="EA34" s="13"/>
-      <c r="EB34" s="13">
+      <c r="DZ34" s="13">
         <v>1</v>
       </c>
-      <c r="EC34" s="13"/>
-      <c r="ED34" s="13"/>
-      <c r="EE34" s="13"/>
-      <c r="EF34" s="13"/>
-      <c r="EG34" s="13"/>
-      <c r="EH34" s="13"/>
-      <c r="EI34" s="1"/>
-      <c r="EJ34" s="1"/>
-      <c r="EK34" s="1"/>
     </row>
-    <row r="35" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:130" ht="60.75" customHeight="1">
       <c r="A35" s="18">
         <v>2</v>
       </c>
@@ -9029,7 +8609,9 @@
       <c r="DH35" s="13">
         <v>2</v>
       </c>
-      <c r="DI35" s="13"/>
+      <c r="DI35" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ35" s="13"/>
       <c r="DK35" s="13"/>
       <c r="DL35" s="13"/>
@@ -9048,22 +8630,11 @@
       <c r="DW35" s="13"/>
       <c r="DX35" s="13"/>
       <c r="DY35" s="13"/>
-      <c r="DZ35" s="13"/>
-      <c r="EA35" s="13"/>
-      <c r="EB35" s="13">
+      <c r="DZ35" s="13">
         <v>1</v>
       </c>
-      <c r="EC35" s="13"/>
-      <c r="ED35" s="13"/>
-      <c r="EE35" s="13"/>
-      <c r="EF35" s="13"/>
-      <c r="EG35" s="13"/>
-      <c r="EH35" s="13"/>
-      <c r="EI35" s="1"/>
-      <c r="EJ35" s="1"/>
-      <c r="EK35" s="1"/>
     </row>
-    <row r="36" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:130" ht="60.75" customHeight="1">
       <c r="A36" s="18">
         <v>2</v>
       </c>
@@ -9296,7 +8867,9 @@
       <c r="DH36" s="13">
         <v>2</v>
       </c>
-      <c r="DI36" s="13"/>
+      <c r="DI36" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ36" s="13"/>
       <c r="DK36" s="13"/>
       <c r="DL36" s="13"/>
@@ -9315,22 +8888,11 @@
       <c r="DW36" s="13"/>
       <c r="DX36" s="13"/>
       <c r="DY36" s="13"/>
-      <c r="DZ36" s="13"/>
-      <c r="EA36" s="13"/>
-      <c r="EB36" s="13">
+      <c r="DZ36" s="13">
         <v>1</v>
       </c>
-      <c r="EC36" s="13"/>
-      <c r="ED36" s="13"/>
-      <c r="EE36" s="13"/>
-      <c r="EF36" s="13"/>
-      <c r="EG36" s="13"/>
-      <c r="EH36" s="13"/>
-      <c r="EI36" s="1"/>
-      <c r="EJ36" s="1"/>
-      <c r="EK36" s="1"/>
     </row>
-    <row r="37" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:130" ht="60.75" customHeight="1">
       <c r="A37" s="18">
         <v>2</v>
       </c>
@@ -9561,7 +9123,9 @@
       <c r="DH37" s="13">
         <v>2</v>
       </c>
-      <c r="DI37" s="13"/>
+      <c r="DI37" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ37" s="13"/>
       <c r="DK37" s="13"/>
       <c r="DL37" s="13"/>
@@ -9580,22 +9144,11 @@
       <c r="DW37" s="13"/>
       <c r="DX37" s="13"/>
       <c r="DY37" s="13"/>
-      <c r="DZ37" s="13"/>
-      <c r="EA37" s="13"/>
-      <c r="EB37" s="13">
+      <c r="DZ37" s="13">
         <v>1</v>
       </c>
-      <c r="EC37" s="13"/>
-      <c r="ED37" s="13"/>
-      <c r="EE37" s="13"/>
-      <c r="EF37" s="13"/>
-      <c r="EG37" s="13"/>
-      <c r="EH37" s="13"/>
-      <c r="EI37" s="1"/>
-      <c r="EJ37" s="1"/>
-      <c r="EK37" s="1"/>
     </row>
-    <row r="38" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:130" ht="60.75" customHeight="1">
       <c r="A38" s="18">
         <v>2</v>
       </c>
@@ -9834,7 +9387,9 @@
       <c r="DH38" s="13">
         <v>2</v>
       </c>
-      <c r="DI38" s="13"/>
+      <c r="DI38" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ38" s="13"/>
       <c r="DK38" s="13"/>
       <c r="DL38" s="13"/>
@@ -9853,22 +9408,11 @@
       <c r="DW38" s="13"/>
       <c r="DX38" s="13"/>
       <c r="DY38" s="13"/>
-      <c r="DZ38" s="13"/>
-      <c r="EA38" s="13"/>
-      <c r="EB38" s="13">
+      <c r="DZ38" s="13">
         <v>1</v>
       </c>
-      <c r="EC38" s="13"/>
-      <c r="ED38" s="13"/>
-      <c r="EE38" s="13"/>
-      <c r="EF38" s="13"/>
-      <c r="EG38" s="13"/>
-      <c r="EH38" s="13"/>
-      <c r="EI38" s="1"/>
-      <c r="EJ38" s="1"/>
-      <c r="EK38" s="1"/>
     </row>
-    <row r="39" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:130" ht="60.75" customHeight="1">
       <c r="A39" s="18">
         <v>2</v>
       </c>
@@ -10109,7 +9653,9 @@
       <c r="DH39" s="13">
         <v>2</v>
       </c>
-      <c r="DI39" s="13"/>
+      <c r="DI39" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ39" s="13"/>
       <c r="DK39" s="13"/>
       <c r="DL39" s="13"/>
@@ -10128,22 +9674,11 @@
       <c r="DW39" s="13"/>
       <c r="DX39" s="13"/>
       <c r="DY39" s="13"/>
-      <c r="DZ39" s="13"/>
-      <c r="EA39" s="13"/>
-      <c r="EB39" s="13">
+      <c r="DZ39" s="13">
         <v>1</v>
       </c>
-      <c r="EC39" s="13"/>
-      <c r="ED39" s="13"/>
-      <c r="EE39" s="13"/>
-      <c r="EF39" s="13"/>
-      <c r="EG39" s="13"/>
-      <c r="EH39" s="13"/>
-      <c r="EI39" s="1"/>
-      <c r="EJ39" s="1"/>
-      <c r="EK39" s="1"/>
     </row>
-    <row r="40" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:130" ht="60.75" customHeight="1">
       <c r="A40" s="18">
         <v>2</v>
       </c>
@@ -10382,7 +9917,9 @@
       <c r="DH40" s="13">
         <v>2</v>
       </c>
-      <c r="DI40" s="13"/>
+      <c r="DI40" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ40" s="13"/>
       <c r="DK40" s="13"/>
       <c r="DL40" s="13"/>
@@ -10401,22 +9938,11 @@
       <c r="DW40" s="13"/>
       <c r="DX40" s="13"/>
       <c r="DY40" s="13"/>
-      <c r="DZ40" s="13"/>
-      <c r="EA40" s="13"/>
-      <c r="EB40" s="13">
+      <c r="DZ40" s="13">
         <v>1</v>
       </c>
-      <c r="EC40" s="13"/>
-      <c r="ED40" s="13"/>
-      <c r="EE40" s="13"/>
-      <c r="EF40" s="13"/>
-      <c r="EG40" s="13"/>
-      <c r="EH40" s="13"/>
-      <c r="EI40" s="1"/>
-      <c r="EJ40" s="1"/>
-      <c r="EK40" s="1"/>
     </row>
-    <row r="41" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:130" ht="60.75" customHeight="1">
       <c r="A41" s="18">
         <v>2</v>
       </c>
@@ -10655,7 +10181,9 @@
       <c r="DH41" s="13">
         <v>2</v>
       </c>
-      <c r="DI41" s="13"/>
+      <c r="DI41" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ41" s="13"/>
       <c r="DK41" s="13"/>
       <c r="DL41" s="13"/>
@@ -10674,22 +10202,11 @@
       <c r="DW41" s="13"/>
       <c r="DX41" s="13"/>
       <c r="DY41" s="13"/>
-      <c r="DZ41" s="13"/>
-      <c r="EA41" s="13"/>
-      <c r="EB41" s="13">
+      <c r="DZ41" s="13">
         <v>1</v>
       </c>
-      <c r="EC41" s="13"/>
-      <c r="ED41" s="13"/>
-      <c r="EE41" s="13"/>
-      <c r="EF41" s="13"/>
-      <c r="EG41" s="13"/>
-      <c r="EH41" s="13"/>
-      <c r="EI41" s="1"/>
-      <c r="EJ41" s="1"/>
-      <c r="EK41" s="1"/>
     </row>
-    <row r="42" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:130" ht="60.75" customHeight="1">
       <c r="A42" s="18">
         <v>2</v>
       </c>
@@ -10938,7 +10455,9 @@
       <c r="DH42" s="13">
         <v>2</v>
       </c>
-      <c r="DI42" s="13"/>
+      <c r="DI42" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ42" s="13"/>
       <c r="DK42" s="13"/>
       <c r="DL42" s="13"/>
@@ -10957,22 +10476,11 @@
       <c r="DW42" s="13"/>
       <c r="DX42" s="13"/>
       <c r="DY42" s="13"/>
-      <c r="DZ42" s="13"/>
-      <c r="EA42" s="13"/>
-      <c r="EB42" s="13">
+      <c r="DZ42" s="13">
         <v>1</v>
       </c>
-      <c r="EC42" s="13"/>
-      <c r="ED42" s="13"/>
-      <c r="EE42" s="13"/>
-      <c r="EF42" s="13"/>
-      <c r="EG42" s="13"/>
-      <c r="EH42" s="13"/>
-      <c r="EI42" s="1"/>
-      <c r="EJ42" s="1"/>
-      <c r="EK42" s="1"/>
     </row>
-    <row r="43" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:130" ht="60.75" customHeight="1">
       <c r="A43" s="18">
         <v>2</v>
       </c>
@@ -11203,7 +10711,9 @@
       <c r="DH43" s="13">
         <v>2</v>
       </c>
-      <c r="DI43" s="13"/>
+      <c r="DI43" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ43" s="13"/>
       <c r="DK43" s="13"/>
       <c r="DL43" s="13"/>
@@ -11222,22 +10732,11 @@
       <c r="DW43" s="13"/>
       <c r="DX43" s="13"/>
       <c r="DY43" s="13"/>
-      <c r="DZ43" s="13"/>
-      <c r="EA43" s="13"/>
-      <c r="EB43" s="13">
+      <c r="DZ43" s="13">
         <v>1</v>
       </c>
-      <c r="EC43" s="13"/>
-      <c r="ED43" s="13"/>
-      <c r="EE43" s="13"/>
-      <c r="EF43" s="13"/>
-      <c r="EG43" s="13"/>
-      <c r="EH43" s="13"/>
-      <c r="EI43" s="1"/>
-      <c r="EJ43" s="1"/>
-      <c r="EK43" s="1"/>
     </row>
-    <row r="44" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:130" ht="60.75" customHeight="1">
       <c r="A44" s="18">
         <v>2</v>
       </c>
@@ -11472,7 +10971,9 @@
       <c r="DH44" s="13">
         <v>2</v>
       </c>
-      <c r="DI44" s="13"/>
+      <c r="DI44" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ44" s="13"/>
       <c r="DK44" s="13"/>
       <c r="DL44" s="13"/>
@@ -11491,22 +10992,11 @@
       <c r="DW44" s="13"/>
       <c r="DX44" s="13"/>
       <c r="DY44" s="13"/>
-      <c r="DZ44" s="13"/>
-      <c r="EA44" s="13"/>
-      <c r="EB44" s="13">
+      <c r="DZ44" s="13">
         <v>1</v>
       </c>
-      <c r="EC44" s="13"/>
-      <c r="ED44" s="13"/>
-      <c r="EE44" s="13"/>
-      <c r="EF44" s="13"/>
-      <c r="EG44" s="13"/>
-      <c r="EH44" s="13"/>
-      <c r="EI44" s="1"/>
-      <c r="EJ44" s="1"/>
-      <c r="EK44" s="1"/>
     </row>
-    <row r="45" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:130" ht="60.75" customHeight="1">
       <c r="A45" s="18">
         <v>2</v>
       </c>
@@ -11737,7 +11227,9 @@
       <c r="DH45" s="13">
         <v>2</v>
       </c>
-      <c r="DI45" s="13"/>
+      <c r="DI45" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ45" s="13"/>
       <c r="DK45" s="13"/>
       <c r="DL45" s="13"/>
@@ -11756,22 +11248,11 @@
       <c r="DW45" s="13"/>
       <c r="DX45" s="13"/>
       <c r="DY45" s="13"/>
-      <c r="DZ45" s="13"/>
-      <c r="EA45" s="13"/>
-      <c r="EB45" s="13">
+      <c r="DZ45" s="13">
         <v>1</v>
       </c>
-      <c r="EC45" s="13"/>
-      <c r="ED45" s="13"/>
-      <c r="EE45" s="13"/>
-      <c r="EF45" s="13"/>
-      <c r="EG45" s="13"/>
-      <c r="EH45" s="13"/>
-      <c r="EI45" s="1"/>
-      <c r="EJ45" s="1"/>
-      <c r="EK45" s="1"/>
     </row>
-    <row r="46" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:130" ht="60.75" customHeight="1">
       <c r="A46" s="18">
         <v>2</v>
       </c>
@@ -12002,7 +11483,9 @@
       <c r="DH46" s="13">
         <v>2</v>
       </c>
-      <c r="DI46" s="13"/>
+      <c r="DI46" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ46" s="13"/>
       <c r="DK46" s="13"/>
       <c r="DL46" s="13"/>
@@ -12021,22 +11504,11 @@
       <c r="DW46" s="13"/>
       <c r="DX46" s="13"/>
       <c r="DY46" s="13"/>
-      <c r="DZ46" s="13"/>
-      <c r="EA46" s="13"/>
-      <c r="EB46" s="13">
+      <c r="DZ46" s="13">
         <v>1</v>
       </c>
-      <c r="EC46" s="13"/>
-      <c r="ED46" s="13"/>
-      <c r="EE46" s="13"/>
-      <c r="EF46" s="13"/>
-      <c r="EG46" s="13"/>
-      <c r="EH46" s="13"/>
-      <c r="EI46" s="1"/>
-      <c r="EJ46" s="1"/>
-      <c r="EK46" s="1"/>
     </row>
-    <row r="47" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:130" ht="60.75" customHeight="1">
       <c r="A47" s="18">
         <v>2</v>
       </c>
@@ -12269,7 +11741,9 @@
       <c r="DH47" s="13">
         <v>2</v>
       </c>
-      <c r="DI47" s="13"/>
+      <c r="DI47" s="13">
+        <v>2</v>
+      </c>
       <c r="DJ47" s="13"/>
       <c r="DK47" s="13"/>
       <c r="DL47" s="13"/>
@@ -12288,22 +11762,11 @@
       <c r="DW47" s="13"/>
       <c r="DX47" s="13"/>
       <c r="DY47" s="13"/>
-      <c r="DZ47" s="13"/>
-      <c r="EA47" s="13"/>
-      <c r="EB47" s="13">
+      <c r="DZ47" s="13">
         <v>1</v>
       </c>
-      <c r="EC47" s="13"/>
-      <c r="ED47" s="13"/>
-      <c r="EE47" s="13"/>
-      <c r="EF47" s="13"/>
-      <c r="EG47" s="13"/>
-      <c r="EH47" s="13"/>
-      <c r="EI47" s="1"/>
-      <c r="EJ47" s="1"/>
-      <c r="EK47" s="1"/>
     </row>
-    <row r="48" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:130" ht="60.75" customHeight="1">
       <c r="A48" s="18">
         <v>2</v>
       </c>
@@ -12527,22 +11990,11 @@
       <c r="DW48" s="13"/>
       <c r="DX48" s="13"/>
       <c r="DY48" s="13"/>
-      <c r="DZ48" s="13"/>
-      <c r="EA48" s="13"/>
-      <c r="EB48" s="13">
+      <c r="DZ48" s="13">
         <v>1</v>
       </c>
-      <c r="EC48" s="13"/>
-      <c r="ED48" s="13"/>
-      <c r="EE48" s="13"/>
-      <c r="EF48" s="13"/>
-      <c r="EG48" s="13"/>
-      <c r="EH48" s="13"/>
-      <c r="EI48" s="1"/>
-      <c r="EJ48" s="1"/>
-      <c r="EK48" s="1"/>
     </row>
-    <row r="49" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:130" ht="60.75" customHeight="1">
       <c r="A49" s="18">
         <v>2</v>
       </c>
@@ -12766,22 +12218,11 @@
       <c r="DW49" s="13"/>
       <c r="DX49" s="13"/>
       <c r="DY49" s="13"/>
-      <c r="DZ49" s="13"/>
-      <c r="EA49" s="13"/>
-      <c r="EB49" s="13">
+      <c r="DZ49" s="13">
         <v>1</v>
       </c>
-      <c r="EC49" s="13"/>
-      <c r="ED49" s="13"/>
-      <c r="EE49" s="13"/>
-      <c r="EF49" s="13"/>
-      <c r="EG49" s="13"/>
-      <c r="EH49" s="13"/>
-      <c r="EI49" s="1"/>
-      <c r="EJ49" s="1"/>
-      <c r="EK49" s="1"/>
     </row>
-    <row r="50" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:130" ht="60.75" customHeight="1">
       <c r="A50" s="18">
         <v>2</v>
       </c>
@@ -13007,22 +12448,11 @@
       <c r="DW50" s="13"/>
       <c r="DX50" s="13"/>
       <c r="DY50" s="13"/>
-      <c r="DZ50" s="13"/>
-      <c r="EA50" s="13"/>
-      <c r="EB50" s="13">
+      <c r="DZ50" s="13">
         <v>1</v>
       </c>
-      <c r="EC50" s="13"/>
-      <c r="ED50" s="13"/>
-      <c r="EE50" s="13"/>
-      <c r="EF50" s="13"/>
-      <c r="EG50" s="13"/>
-      <c r="EH50" s="13"/>
-      <c r="EI50" s="1"/>
-      <c r="EJ50" s="1"/>
-      <c r="EK50" s="1"/>
     </row>
-    <row r="51" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:130" ht="60.75" customHeight="1">
       <c r="A51" s="18">
         <v>2</v>
       </c>
@@ -13246,22 +12676,11 @@
       <c r="DW51" s="13"/>
       <c r="DX51" s="13"/>
       <c r="DY51" s="13"/>
-      <c r="DZ51" s="13"/>
-      <c r="EA51" s="13"/>
-      <c r="EB51" s="13">
+      <c r="DZ51" s="13">
         <v>1</v>
       </c>
-      <c r="EC51" s="13"/>
-      <c r="ED51" s="13"/>
-      <c r="EE51" s="13"/>
-      <c r="EF51" s="13"/>
-      <c r="EG51" s="13"/>
-      <c r="EH51" s="13"/>
-      <c r="EI51" s="1"/>
-      <c r="EJ51" s="1"/>
-      <c r="EK51" s="1"/>
     </row>
-    <row r="52" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:130" ht="60.75" customHeight="1">
       <c r="A52" s="18">
         <v>2</v>
       </c>
@@ -13527,22 +12946,11 @@
       <c r="DW52" s="13"/>
       <c r="DX52" s="13"/>
       <c r="DY52" s="13"/>
-      <c r="DZ52" s="13"/>
-      <c r="EA52" s="13"/>
-      <c r="EB52" s="13">
+      <c r="DZ52" s="13">
         <v>1</v>
       </c>
-      <c r="EC52" s="13"/>
-      <c r="ED52" s="13"/>
-      <c r="EE52" s="13"/>
-      <c r="EF52" s="13"/>
-      <c r="EG52" s="13"/>
-      <c r="EH52" s="13"/>
-      <c r="EI52" s="1"/>
-      <c r="EJ52" s="1"/>
-      <c r="EK52" s="1"/>
     </row>
-    <row r="53" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:130" ht="60.75" customHeight="1">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -13613,22 +13021,54 @@
       <c r="BN53" s="13"/>
       <c r="BO53" s="13"/>
       <c r="BP53" s="13"/>
-      <c r="BQ53" s="13"/>
-      <c r="BR53" s="13"/>
-      <c r="BS53" s="13"/>
-      <c r="BT53" s="13"/>
-      <c r="BU53" s="13"/>
-      <c r="BV53" s="13"/>
-      <c r="BW53" s="13"/>
-      <c r="BX53" s="13"/>
-      <c r="BY53" s="13"/>
-      <c r="BZ53" s="13"/>
-      <c r="CA53" s="13"/>
-      <c r="CB53" s="13"/>
-      <c r="CC53" s="13"/>
-      <c r="CD53" s="13"/>
-      <c r="CE53" s="13"/>
-      <c r="CF53" s="13"/>
+      <c r="BQ53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BR53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BS53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BT53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BU53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BV53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BW53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BX53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BY53" s="13">
+        <v>2</v>
+      </c>
+      <c r="BZ53" s="13">
+        <v>2</v>
+      </c>
+      <c r="CA53" s="13">
+        <v>2</v>
+      </c>
+      <c r="CB53" s="13">
+        <v>2</v>
+      </c>
+      <c r="CC53" s="13">
+        <v>2</v>
+      </c>
+      <c r="CD53" s="13">
+        <v>2</v>
+      </c>
+      <c r="CE53" s="13">
+        <v>2</v>
+      </c>
+      <c r="CF53" s="13">
+        <v>2</v>
+      </c>
       <c r="CG53" s="13"/>
       <c r="CH53" s="13"/>
       <c r="CI53" s="13"/>
@@ -13654,14 +13094,30 @@
       <c r="DC53" s="13"/>
       <c r="DD53" s="13"/>
       <c r="DE53" s="13"/>
-      <c r="DF53" s="13"/>
-      <c r="DG53" s="13"/>
-      <c r="DH53" s="13"/>
-      <c r="DI53" s="13"/>
-      <c r="DJ53" s="13"/>
-      <c r="DK53" s="13"/>
-      <c r="DL53" s="13"/>
-      <c r="DM53" s="13"/>
+      <c r="DF53" s="13">
+        <v>2</v>
+      </c>
+      <c r="DG53" s="13">
+        <v>2</v>
+      </c>
+      <c r="DH53" s="13">
+        <v>2</v>
+      </c>
+      <c r="DI53" s="13">
+        <v>2</v>
+      </c>
+      <c r="DJ53" s="13">
+        <v>2</v>
+      </c>
+      <c r="DK53" s="13">
+        <v>2</v>
+      </c>
+      <c r="DL53" s="13">
+        <v>2</v>
+      </c>
+      <c r="DM53" s="13">
+        <v>2</v>
+      </c>
       <c r="DN53" s="13"/>
       <c r="DO53" s="13"/>
       <c r="DP53" s="13"/>
@@ -13674,22 +13130,11 @@
       <c r="DW53" s="13"/>
       <c r="DX53" s="13"/>
       <c r="DY53" s="13"/>
-      <c r="DZ53" s="13"/>
-      <c r="EA53" s="13"/>
-      <c r="EB53" s="13">
+      <c r="DZ53" s="13">
         <v>1</v>
       </c>
-      <c r="EC53" s="13"/>
-      <c r="ED53" s="13"/>
-      <c r="EE53" s="13"/>
-      <c r="EF53" s="13"/>
-      <c r="EG53" s="13"/>
-      <c r="EH53" s="13"/>
-      <c r="EI53" s="1"/>
-      <c r="EJ53" s="1"/>
-      <c r="EK53" s="1"/>
     </row>
-    <row r="54" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:130" ht="60.75" customHeight="1">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -13821,22 +13266,11 @@
       <c r="DW54" s="13"/>
       <c r="DX54" s="13"/>
       <c r="DY54" s="13"/>
-      <c r="DZ54" s="13"/>
-      <c r="EA54" s="13"/>
-      <c r="EB54" s="13">
+      <c r="DZ54" s="13">
         <v>1</v>
       </c>
-      <c r="EC54" s="13"/>
-      <c r="ED54" s="13"/>
-      <c r="EE54" s="13"/>
-      <c r="EF54" s="13"/>
-      <c r="EG54" s="13"/>
-      <c r="EH54" s="13"/>
-      <c r="EI54" s="1"/>
-      <c r="EJ54" s="1"/>
-      <c r="EK54" s="1"/>
     </row>
-    <row r="55" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:130" ht="60.75" customHeight="1">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -13968,22 +13402,11 @@
       <c r="DW55" s="13"/>
       <c r="DX55" s="13"/>
       <c r="DY55" s="13"/>
-      <c r="DZ55" s="13"/>
-      <c r="EA55" s="13"/>
-      <c r="EB55" s="13">
+      <c r="DZ55" s="13">
         <v>1</v>
       </c>
-      <c r="EC55" s="13"/>
-      <c r="ED55" s="13"/>
-      <c r="EE55" s="13"/>
-      <c r="EF55" s="13"/>
-      <c r="EG55" s="13"/>
-      <c r="EH55" s="13"/>
-      <c r="EI55" s="1"/>
-      <c r="EJ55" s="1"/>
-      <c r="EK55" s="1"/>
     </row>
-    <row r="56" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:130" ht="60.75" customHeight="1">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -14115,22 +13538,11 @@
       <c r="DW56" s="13"/>
       <c r="DX56" s="13"/>
       <c r="DY56" s="13"/>
-      <c r="DZ56" s="13"/>
-      <c r="EA56" s="13"/>
-      <c r="EB56" s="13">
+      <c r="DZ56" s="13">
         <v>1</v>
       </c>
-      <c r="EC56" s="13"/>
-      <c r="ED56" s="13"/>
-      <c r="EE56" s="13"/>
-      <c r="EF56" s="13"/>
-      <c r="EG56" s="13"/>
-      <c r="EH56" s="13"/>
-      <c r="EI56" s="1"/>
-      <c r="EJ56" s="1"/>
-      <c r="EK56" s="1"/>
     </row>
-    <row r="57" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:130" ht="60.75" customHeight="1">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -14262,22 +13674,11 @@
       <c r="DW57" s="13"/>
       <c r="DX57" s="13"/>
       <c r="DY57" s="13"/>
-      <c r="DZ57" s="13"/>
-      <c r="EA57" s="13"/>
-      <c r="EB57" s="13">
+      <c r="DZ57" s="13">
         <v>1</v>
       </c>
-      <c r="EC57" s="13"/>
-      <c r="ED57" s="13"/>
-      <c r="EE57" s="13"/>
-      <c r="EF57" s="13"/>
-      <c r="EG57" s="13"/>
-      <c r="EH57" s="13"/>
-      <c r="EI57" s="1"/>
-      <c r="EJ57" s="1"/>
-      <c r="EK57" s="1"/>
     </row>
-    <row r="58" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:130" ht="60.75" customHeight="1">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -14409,22 +13810,11 @@
       <c r="DW58" s="13"/>
       <c r="DX58" s="13"/>
       <c r="DY58" s="13"/>
-      <c r="DZ58" s="13"/>
-      <c r="EA58" s="13"/>
-      <c r="EB58" s="13">
+      <c r="DZ58" s="13">
         <v>1</v>
       </c>
-      <c r="EC58" s="13"/>
-      <c r="ED58" s="13"/>
-      <c r="EE58" s="13"/>
-      <c r="EF58" s="13"/>
-      <c r="EG58" s="13"/>
-      <c r="EH58" s="13"/>
-      <c r="EI58" s="1"/>
-      <c r="EJ58" s="1"/>
-      <c r="EK58" s="1"/>
     </row>
-    <row r="59" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:130" ht="60.75" customHeight="1">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -14556,22 +13946,11 @@
       <c r="DW59" s="13"/>
       <c r="DX59" s="13"/>
       <c r="DY59" s="13"/>
-      <c r="DZ59" s="13"/>
-      <c r="EA59" s="13"/>
-      <c r="EB59" s="13">
+      <c r="DZ59" s="13">
         <v>1</v>
       </c>
-      <c r="EC59" s="13"/>
-      <c r="ED59" s="13"/>
-      <c r="EE59" s="13"/>
-      <c r="EF59" s="13"/>
-      <c r="EG59" s="13"/>
-      <c r="EH59" s="13"/>
-      <c r="EI59" s="1"/>
-      <c r="EJ59" s="1"/>
-      <c r="EK59" s="1"/>
     </row>
-    <row r="60" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:130" ht="60.75" customHeight="1">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -14703,22 +14082,11 @@
       <c r="DW60" s="13"/>
       <c r="DX60" s="13"/>
       <c r="DY60" s="13"/>
-      <c r="DZ60" s="13"/>
-      <c r="EA60" s="13"/>
-      <c r="EB60" s="13">
+      <c r="DZ60" s="13">
         <v>1</v>
       </c>
-      <c r="EC60" s="13"/>
-      <c r="ED60" s="13"/>
-      <c r="EE60" s="13"/>
-      <c r="EF60" s="13"/>
-      <c r="EG60" s="13"/>
-      <c r="EH60" s="13"/>
-      <c r="EI60" s="1"/>
-      <c r="EJ60" s="1"/>
-      <c r="EK60" s="1"/>
     </row>
-    <row r="61" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:130" ht="60.75" customHeight="1">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -14864,22 +14232,11 @@
       <c r="DW61" s="13"/>
       <c r="DX61" s="13"/>
       <c r="DY61" s="13"/>
-      <c r="DZ61" s="13"/>
-      <c r="EA61" s="13"/>
-      <c r="EB61" s="13">
+      <c r="DZ61" s="13">
         <v>1</v>
       </c>
-      <c r="EC61" s="13"/>
-      <c r="ED61" s="13"/>
-      <c r="EE61" s="13"/>
-      <c r="EF61" s="13"/>
-      <c r="EG61" s="13"/>
-      <c r="EH61" s="13"/>
-      <c r="EI61" s="1"/>
-      <c r="EJ61" s="1"/>
-      <c r="EK61" s="1"/>
     </row>
-    <row r="62" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:130" ht="60.75" customHeight="1">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -15011,22 +14368,11 @@
       <c r="DW62" s="13"/>
       <c r="DX62" s="13"/>
       <c r="DY62" s="13"/>
-      <c r="DZ62" s="13"/>
-      <c r="EA62" s="13"/>
-      <c r="EB62" s="13">
+      <c r="DZ62" s="13">
         <v>1</v>
       </c>
-      <c r="EC62" s="13"/>
-      <c r="ED62" s="13"/>
-      <c r="EE62" s="13"/>
-      <c r="EF62" s="13"/>
-      <c r="EG62" s="13"/>
-      <c r="EH62" s="13"/>
-      <c r="EI62" s="1"/>
-      <c r="EJ62" s="1"/>
-      <c r="EK62" s="1"/>
     </row>
-    <row r="63" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:130" ht="60.75" customHeight="1">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -15158,22 +14504,11 @@
       <c r="DW63" s="13"/>
       <c r="DX63" s="13"/>
       <c r="DY63" s="13"/>
-      <c r="DZ63" s="13"/>
-      <c r="EA63" s="13"/>
-      <c r="EB63" s="13">
+      <c r="DZ63" s="13">
         <v>1</v>
       </c>
-      <c r="EC63" s="13"/>
-      <c r="ED63" s="13"/>
-      <c r="EE63" s="13"/>
-      <c r="EF63" s="13"/>
-      <c r="EG63" s="13"/>
-      <c r="EH63" s="13"/>
-      <c r="EI63" s="1"/>
-      <c r="EJ63" s="1"/>
-      <c r="EK63" s="1"/>
     </row>
-    <row r="64" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:130" ht="60.75" customHeight="1">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -15305,22 +14640,11 @@
       <c r="DW64" s="13"/>
       <c r="DX64" s="13"/>
       <c r="DY64" s="13"/>
-      <c r="DZ64" s="13"/>
-      <c r="EA64" s="13"/>
-      <c r="EB64" s="13">
+      <c r="DZ64" s="13">
         <v>1</v>
       </c>
-      <c r="EC64" s="13"/>
-      <c r="ED64" s="13"/>
-      <c r="EE64" s="13"/>
-      <c r="EF64" s="13"/>
-      <c r="EG64" s="13"/>
-      <c r="EH64" s="13"/>
-      <c r="EI64" s="1"/>
-      <c r="EJ64" s="1"/>
-      <c r="EK64" s="1"/>
     </row>
-    <row r="65" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:130" ht="60.75" customHeight="1">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -15452,22 +14776,11 @@
       <c r="DW65" s="13"/>
       <c r="DX65" s="13"/>
       <c r="DY65" s="13"/>
-      <c r="DZ65" s="13"/>
-      <c r="EA65" s="13"/>
-      <c r="EB65" s="13">
+      <c r="DZ65" s="13">
         <v>1</v>
       </c>
-      <c r="EC65" s="13"/>
-      <c r="ED65" s="13"/>
-      <c r="EE65" s="13"/>
-      <c r="EF65" s="13"/>
-      <c r="EG65" s="13"/>
-      <c r="EH65" s="13"/>
-      <c r="EI65" s="1"/>
-      <c r="EJ65" s="1"/>
-      <c r="EK65" s="1"/>
     </row>
-    <row r="66" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:130" ht="60.75" customHeight="1">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -15599,22 +14912,11 @@
       <c r="DW66" s="13"/>
       <c r="DX66" s="13"/>
       <c r="DY66" s="13"/>
-      <c r="DZ66" s="13"/>
-      <c r="EA66" s="13"/>
-      <c r="EB66" s="13">
+      <c r="DZ66" s="13">
         <v>1</v>
       </c>
-      <c r="EC66" s="13"/>
-      <c r="ED66" s="13"/>
-      <c r="EE66" s="13"/>
-      <c r="EF66" s="13"/>
-      <c r="EG66" s="13"/>
-      <c r="EH66" s="13"/>
-      <c r="EI66" s="1"/>
-      <c r="EJ66" s="1"/>
-      <c r="EK66" s="1"/>
     </row>
-    <row r="67" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:130" ht="60.75" customHeight="1">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -15746,22 +15048,11 @@
       <c r="DW67" s="13"/>
       <c r="DX67" s="13"/>
       <c r="DY67" s="13"/>
-      <c r="DZ67" s="13"/>
-      <c r="EA67" s="13"/>
-      <c r="EB67" s="13">
+      <c r="DZ67" s="13">
         <v>1</v>
       </c>
-      <c r="EC67" s="13"/>
-      <c r="ED67" s="13"/>
-      <c r="EE67" s="13"/>
-      <c r="EF67" s="13"/>
-      <c r="EG67" s="13"/>
-      <c r="EH67" s="13"/>
-      <c r="EI67" s="1"/>
-      <c r="EJ67" s="1"/>
-      <c r="EK67" s="1"/>
     </row>
-    <row r="68" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:130" ht="60.75" customHeight="1">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -15893,22 +15184,11 @@
       <c r="DW68" s="13"/>
       <c r="DX68" s="13"/>
       <c r="DY68" s="13"/>
-      <c r="DZ68" s="13"/>
-      <c r="EA68" s="13"/>
-      <c r="EB68" s="13">
+      <c r="DZ68" s="13">
         <v>1</v>
       </c>
-      <c r="EC68" s="13"/>
-      <c r="ED68" s="13"/>
-      <c r="EE68" s="13"/>
-      <c r="EF68" s="13"/>
-      <c r="EG68" s="13"/>
-      <c r="EH68" s="13"/>
-      <c r="EI68" s="1"/>
-      <c r="EJ68" s="1"/>
-      <c r="EK68" s="1"/>
     </row>
-    <row r="69" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:130" ht="60.75" customHeight="1">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -16042,22 +15322,11 @@
       <c r="DW69" s="13"/>
       <c r="DX69" s="13"/>
       <c r="DY69" s="13"/>
-      <c r="DZ69" s="13"/>
-      <c r="EA69" s="13"/>
-      <c r="EB69" s="13">
+      <c r="DZ69" s="13">
         <v>1</v>
       </c>
-      <c r="EC69" s="13"/>
-      <c r="ED69" s="13"/>
-      <c r="EE69" s="13"/>
-      <c r="EF69" s="13"/>
-      <c r="EG69" s="13"/>
-      <c r="EH69" s="13"/>
-      <c r="EI69" s="1"/>
-      <c r="EJ69" s="1"/>
-      <c r="EK69" s="1"/>
     </row>
-    <row r="70" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:130" ht="60.75" customHeight="1">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -16189,22 +15458,11 @@
       <c r="DW70" s="13"/>
       <c r="DX70" s="13"/>
       <c r="DY70" s="13"/>
-      <c r="DZ70" s="13"/>
-      <c r="EA70" s="13"/>
-      <c r="EB70" s="13">
+      <c r="DZ70" s="13">
         <v>1</v>
       </c>
-      <c r="EC70" s="13"/>
-      <c r="ED70" s="13"/>
-      <c r="EE70" s="13"/>
-      <c r="EF70" s="13"/>
-      <c r="EG70" s="13"/>
-      <c r="EH70" s="13"/>
-      <c r="EI70" s="1"/>
-      <c r="EJ70" s="1"/>
-      <c r="EK70" s="1"/>
     </row>
-    <row r="71" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:130" ht="60.75" customHeight="1">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -16513,23 +15771,8 @@
       <c r="DZ71" s="13">
         <v>2</v>
       </c>
-      <c r="EA71" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB71" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC71" s="13"/>
-      <c r="ED71" s="13"/>
-      <c r="EE71" s="13"/>
-      <c r="EF71" s="13"/>
-      <c r="EG71" s="13"/>
-      <c r="EH71" s="13"/>
-      <c r="EI71" s="1"/>
-      <c r="EJ71" s="1"/>
-      <c r="EK71" s="1"/>
     </row>
-    <row r="72" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:130" ht="60.75" customHeight="1">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -16838,23 +16081,8 @@
       <c r="DZ72" s="13">
         <v>2</v>
       </c>
-      <c r="EA72" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB72" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC72" s="13"/>
-      <c r="ED72" s="13"/>
-      <c r="EE72" s="13"/>
-      <c r="EF72" s="13"/>
-      <c r="EG72" s="13"/>
-      <c r="EH72" s="13"/>
-      <c r="EI72" s="1"/>
-      <c r="EJ72" s="1"/>
-      <c r="EK72" s="1"/>
     </row>
-    <row r="73" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:130" ht="60.75" customHeight="1">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -17163,23 +16391,8 @@
       <c r="DZ73" s="13">
         <v>2</v>
       </c>
-      <c r="EA73" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB73" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC73" s="13"/>
-      <c r="ED73" s="13"/>
-      <c r="EE73" s="13"/>
-      <c r="EF73" s="13"/>
-      <c r="EG73" s="13"/>
-      <c r="EH73" s="13"/>
-      <c r="EI73" s="1"/>
-      <c r="EJ73" s="1"/>
-      <c r="EK73" s="1"/>
     </row>
-    <row r="74" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:130" ht="60.75" customHeight="1">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -17488,23 +16701,8 @@
       <c r="DZ74" s="13">
         <v>2</v>
       </c>
-      <c r="EA74" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB74" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC74" s="13"/>
-      <c r="ED74" s="13"/>
-      <c r="EE74" s="13"/>
-      <c r="EF74" s="13"/>
-      <c r="EG74" s="13"/>
-      <c r="EH74" s="13"/>
-      <c r="EI74" s="1"/>
-      <c r="EJ74" s="1"/>
-      <c r="EK74" s="1"/>
     </row>
-    <row r="75" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:130" ht="60.75" customHeight="1">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -17813,23 +17011,8 @@
       <c r="DZ75" s="13">
         <v>2</v>
       </c>
-      <c r="EA75" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB75" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC75" s="13"/>
-      <c r="ED75" s="13"/>
-      <c r="EE75" s="13"/>
-      <c r="EF75" s="13"/>
-      <c r="EG75" s="13"/>
-      <c r="EH75" s="13"/>
-      <c r="EI75" s="1"/>
-      <c r="EJ75" s="1"/>
-      <c r="EK75" s="1"/>
     </row>
-    <row r="76" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:130" ht="60.75" customHeight="1">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -18142,23 +17325,8 @@
       <c r="DZ76" s="13">
         <v>2</v>
       </c>
-      <c r="EA76" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB76" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC76" s="13"/>
-      <c r="ED76" s="13"/>
-      <c r="EE76" s="13"/>
-      <c r="EF76" s="13"/>
-      <c r="EG76" s="13"/>
-      <c r="EH76" s="13"/>
-      <c r="EI76" s="1"/>
-      <c r="EJ76" s="1"/>
-      <c r="EK76" s="1"/>
     </row>
-    <row r="77" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:130" ht="60.75" customHeight="1">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -18467,23 +17635,8 @@
       <c r="DZ77" s="13">
         <v>2</v>
       </c>
-      <c r="EA77" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB77" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC77" s="13"/>
-      <c r="ED77" s="13"/>
-      <c r="EE77" s="13"/>
-      <c r="EF77" s="13"/>
-      <c r="EG77" s="13"/>
-      <c r="EH77" s="13"/>
-      <c r="EI77" s="1"/>
-      <c r="EJ77" s="1"/>
-      <c r="EK77" s="1"/>
     </row>
-    <row r="78" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:130" ht="60.75" customHeight="1">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -18794,23 +17947,8 @@
       <c r="DZ78" s="13">
         <v>2</v>
       </c>
-      <c r="EA78" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB78" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC78" s="13"/>
-      <c r="ED78" s="13"/>
-      <c r="EE78" s="13"/>
-      <c r="EF78" s="13"/>
-      <c r="EG78" s="13"/>
-      <c r="EH78" s="13"/>
-      <c r="EI78" s="1"/>
-      <c r="EJ78" s="1"/>
-      <c r="EK78" s="1"/>
     </row>
-    <row r="79" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:130" ht="60.75" customHeight="1">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -19121,23 +18259,8 @@
       <c r="DZ79" s="13">
         <v>2</v>
       </c>
-      <c r="EA79" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB79" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC79" s="13"/>
-      <c r="ED79" s="13"/>
-      <c r="EE79" s="13"/>
-      <c r="EF79" s="13"/>
-      <c r="EG79" s="13"/>
-      <c r="EH79" s="13"/>
-      <c r="EI79" s="1"/>
-      <c r="EJ79" s="1"/>
-      <c r="EK79" s="1"/>
     </row>
-    <row r="80" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:130" ht="60.75" customHeight="1">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -19446,23 +18569,8 @@
       <c r="DZ80" s="13">
         <v>2</v>
       </c>
-      <c r="EA80" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB80" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC80" s="13"/>
-      <c r="ED80" s="13"/>
-      <c r="EE80" s="13"/>
-      <c r="EF80" s="13"/>
-      <c r="EG80" s="13"/>
-      <c r="EH80" s="13"/>
-      <c r="EI80" s="1"/>
-      <c r="EJ80" s="1"/>
-      <c r="EK80" s="1"/>
     </row>
-    <row r="81" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:130" ht="60.75" customHeight="1">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -19771,23 +18879,8 @@
       <c r="DZ81" s="13">
         <v>2</v>
       </c>
-      <c r="EA81" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB81" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC81" s="13"/>
-      <c r="ED81" s="13"/>
-      <c r="EE81" s="13"/>
-      <c r="EF81" s="13"/>
-      <c r="EG81" s="13"/>
-      <c r="EH81" s="13"/>
-      <c r="EI81" s="1"/>
-      <c r="EJ81" s="1"/>
-      <c r="EK81" s="1"/>
     </row>
-    <row r="82" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:130" ht="60.75" customHeight="1">
       <c r="A82" s="1">
         <v>1</v>
       </c>
@@ -20076,23 +19169,8 @@
       <c r="DZ82" s="13">
         <v>2</v>
       </c>
-      <c r="EA82" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB82" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC82" s="13"/>
-      <c r="ED82" s="13"/>
-      <c r="EE82" s="13"/>
-      <c r="EF82" s="13"/>
-      <c r="EG82" s="13"/>
-      <c r="EH82" s="13"/>
-      <c r="EI82" s="1"/>
-      <c r="EJ82" s="1"/>
-      <c r="EK82" s="1"/>
     </row>
-    <row r="83" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:130" ht="60.75" customHeight="1">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -20349,23 +19427,8 @@
       <c r="DZ83" s="13">
         <v>2</v>
       </c>
-      <c r="EA83" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB83" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC83" s="13"/>
-      <c r="ED83" s="13"/>
-      <c r="EE83" s="13"/>
-      <c r="EF83" s="13"/>
-      <c r="EG83" s="13"/>
-      <c r="EH83" s="13"/>
-      <c r="EI83" s="1"/>
-      <c r="EJ83" s="1"/>
-      <c r="EK83" s="1"/>
     </row>
-    <row r="84" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:130" ht="60.75" customHeight="1">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -20622,23 +19685,8 @@
       <c r="DZ84" s="13">
         <v>2</v>
       </c>
-      <c r="EA84" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB84" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC84" s="13"/>
-      <c r="ED84" s="13"/>
-      <c r="EE84" s="13"/>
-      <c r="EF84" s="13"/>
-      <c r="EG84" s="13"/>
-      <c r="EH84" s="13"/>
-      <c r="EI84" s="1"/>
-      <c r="EJ84" s="1"/>
-      <c r="EK84" s="1"/>
     </row>
-    <row r="85" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:130" ht="60.75" customHeight="1">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -20895,23 +19943,8 @@
       <c r="DZ85" s="13">
         <v>2</v>
       </c>
-      <c r="EA85" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB85" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC85" s="13"/>
-      <c r="ED85" s="13"/>
-      <c r="EE85" s="13"/>
-      <c r="EF85" s="13"/>
-      <c r="EG85" s="13"/>
-      <c r="EH85" s="13"/>
-      <c r="EI85" s="1"/>
-      <c r="EJ85" s="1"/>
-      <c r="EK85" s="1"/>
     </row>
-    <row r="86" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:130" ht="60.75" customHeight="1">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -21168,23 +20201,8 @@
       <c r="DZ86" s="13">
         <v>2</v>
       </c>
-      <c r="EA86" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB86" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC86" s="13"/>
-      <c r="ED86" s="13"/>
-      <c r="EE86" s="13"/>
-      <c r="EF86" s="13"/>
-      <c r="EG86" s="13"/>
-      <c r="EH86" s="13"/>
-      <c r="EI86" s="1"/>
-      <c r="EJ86" s="1"/>
-      <c r="EK86" s="1"/>
     </row>
-    <row r="87" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:130" ht="60.75" customHeight="1">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -21409,23 +20427,8 @@
       <c r="DZ87" s="13">
         <v>2</v>
       </c>
-      <c r="EA87" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB87" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC87" s="13"/>
-      <c r="ED87" s="13"/>
-      <c r="EE87" s="13"/>
-      <c r="EF87" s="13"/>
-      <c r="EG87" s="19"/>
-      <c r="EH87" s="13"/>
-      <c r="EI87" s="1"/>
-      <c r="EJ87" s="1"/>
-      <c r="EK87" s="1"/>
     </row>
-    <row r="88" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:130" ht="60.75" customHeight="1">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -21684,23 +20687,8 @@
       <c r="DZ88" s="13">
         <v>2</v>
       </c>
-      <c r="EA88" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB88" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC88" s="13"/>
-      <c r="ED88" s="13"/>
-      <c r="EE88" s="13"/>
-      <c r="EF88" s="13"/>
-      <c r="EG88" s="13"/>
-      <c r="EH88" s="13"/>
-      <c r="EI88" s="1"/>
-      <c r="EJ88" s="1"/>
-      <c r="EK88" s="1"/>
     </row>
-    <row r="89" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:130" ht="60.75" customHeight="1">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -21965,23 +20953,8 @@
       <c r="DZ89" s="13">
         <v>2</v>
       </c>
-      <c r="EA89" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB89" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC89" s="13"/>
-      <c r="ED89" s="13"/>
-      <c r="EE89" s="13"/>
-      <c r="EF89" s="13"/>
-      <c r="EG89" s="13"/>
-      <c r="EH89" s="13"/>
-      <c r="EI89" s="1"/>
-      <c r="EJ89" s="1"/>
-      <c r="EK89" s="1"/>
     </row>
-    <row r="90" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:130" ht="60.75" customHeight="1">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -22240,23 +21213,8 @@
       <c r="DZ90" s="13">
         <v>2</v>
       </c>
-      <c r="EA90" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB90" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC90" s="13"/>
-      <c r="ED90" s="13"/>
-      <c r="EE90" s="13"/>
-      <c r="EF90" s="13"/>
-      <c r="EG90" s="13"/>
-      <c r="EH90" s="13"/>
-      <c r="EI90" s="1"/>
-      <c r="EJ90" s="1"/>
-      <c r="EK90" s="1"/>
     </row>
-    <row r="91" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:130" ht="60.75" customHeight="1">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -22515,23 +21473,8 @@
       <c r="DZ91" s="13">
         <v>2</v>
       </c>
-      <c r="EA91" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB91" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC91" s="13"/>
-      <c r="ED91" s="13"/>
-      <c r="EE91" s="13"/>
-      <c r="EF91" s="13"/>
-      <c r="EG91" s="13"/>
-      <c r="EH91" s="13"/>
-      <c r="EI91" s="1"/>
-      <c r="EJ91" s="1"/>
-      <c r="EK91" s="1"/>
     </row>
-    <row r="92" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:130" ht="60.75" customHeight="1">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -22743,22 +21686,11 @@
       <c r="DW92" s="13"/>
       <c r="DX92" s="13"/>
       <c r="DY92" s="13"/>
-      <c r="DZ92" s="13"/>
-      <c r="EA92" s="13"/>
-      <c r="EB92" s="13">
+      <c r="DZ92" s="13">
         <v>1</v>
       </c>
-      <c r="EC92" s="13"/>
-      <c r="ED92" s="13"/>
-      <c r="EE92" s="13"/>
-      <c r="EF92" s="13"/>
-      <c r="EG92" s="13"/>
-      <c r="EH92" s="13"/>
-      <c r="EI92" s="1"/>
-      <c r="EJ92" s="1"/>
-      <c r="EK92" s="1"/>
     </row>
-    <row r="93" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:130" ht="60.75" customHeight="1">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -22970,22 +21902,11 @@
       <c r="DW93" s="13"/>
       <c r="DX93" s="13"/>
       <c r="DY93" s="13"/>
-      <c r="DZ93" s="13"/>
-      <c r="EA93" s="13"/>
-      <c r="EB93" s="13">
+      <c r="DZ93" s="13">
         <v>1</v>
       </c>
-      <c r="EC93" s="13"/>
-      <c r="ED93" s="13"/>
-      <c r="EE93" s="13"/>
-      <c r="EF93" s="13"/>
-      <c r="EG93" s="13"/>
-      <c r="EH93" s="13"/>
-      <c r="EI93" s="1"/>
-      <c r="EJ93" s="1"/>
-      <c r="EK93" s="1"/>
     </row>
-    <row r="94" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:130" ht="60.75" customHeight="1">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -23197,22 +22118,11 @@
       <c r="DW94" s="13"/>
       <c r="DX94" s="13"/>
       <c r="DY94" s="13"/>
-      <c r="DZ94" s="13"/>
-      <c r="EA94" s="13"/>
-      <c r="EB94" s="13">
+      <c r="DZ94" s="13">
         <v>1</v>
       </c>
-      <c r="EC94" s="13"/>
-      <c r="ED94" s="13"/>
-      <c r="EE94" s="13"/>
-      <c r="EF94" s="13"/>
-      <c r="EG94" s="13"/>
-      <c r="EH94" s="13"/>
-      <c r="EI94" s="1"/>
-      <c r="EJ94" s="1"/>
-      <c r="EK94" s="1"/>
     </row>
-    <row r="95" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:130" ht="60.75" customHeight="1">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -23406,22 +22316,11 @@
       <c r="DW95" s="13"/>
       <c r="DX95" s="13"/>
       <c r="DY95" s="13"/>
-      <c r="DZ95" s="13"/>
-      <c r="EA95" s="13"/>
-      <c r="EB95" s="13">
+      <c r="DZ95" s="13">
         <v>1</v>
       </c>
-      <c r="EC95" s="13"/>
-      <c r="ED95" s="13"/>
-      <c r="EE95" s="13"/>
-      <c r="EF95" s="13"/>
-      <c r="EG95" s="13"/>
-      <c r="EH95" s="13"/>
-      <c r="EI95" s="1"/>
-      <c r="EJ95" s="1"/>
-      <c r="EK95" s="1"/>
     </row>
-    <row r="96" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:130" ht="60.75" customHeight="1">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -23674,23 +22573,8 @@
       <c r="DZ96" s="13">
         <v>2</v>
       </c>
-      <c r="EA96" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB96" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC96" s="13"/>
-      <c r="ED96" s="13"/>
-      <c r="EE96" s="13"/>
-      <c r="EF96" s="13"/>
-      <c r="EG96" s="13"/>
-      <c r="EH96" s="13"/>
-      <c r="EI96" s="1"/>
-      <c r="EJ96" s="1"/>
-      <c r="EK96" s="1"/>
     </row>
-    <row r="97" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:130" ht="60.75" customHeight="1">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -23933,23 +22817,8 @@
       <c r="DZ97" s="13">
         <v>2</v>
       </c>
-      <c r="EA97" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB97" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC97" s="13"/>
-      <c r="ED97" s="13"/>
-      <c r="EE97" s="13"/>
-      <c r="EF97" s="13"/>
-      <c r="EG97" s="13"/>
-      <c r="EH97" s="13"/>
-      <c r="EI97" s="1"/>
-      <c r="EJ97" s="1"/>
-      <c r="EK97" s="1"/>
     </row>
-    <row r="98" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:130" ht="60.75" customHeight="1">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -24198,23 +23067,8 @@
       <c r="DZ98" s="13">
         <v>2</v>
       </c>
-      <c r="EA98" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB98" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC98" s="13"/>
-      <c r="ED98" s="13"/>
-      <c r="EE98" s="13"/>
-      <c r="EF98" s="13"/>
-      <c r="EG98" s="13"/>
-      <c r="EH98" s="13"/>
-      <c r="EI98" s="1"/>
-      <c r="EJ98" s="1"/>
-      <c r="EK98" s="1"/>
     </row>
-    <row r="99" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:130" ht="60.75" customHeight="1">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -24465,23 +23319,8 @@
       <c r="DZ99" s="13">
         <v>2</v>
       </c>
-      <c r="EA99" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB99" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC99" s="13"/>
-      <c r="ED99" s="13"/>
-      <c r="EE99" s="13"/>
-      <c r="EF99" s="13"/>
-      <c r="EG99" s="13"/>
-      <c r="EH99" s="13"/>
-      <c r="EI99" s="1"/>
-      <c r="EJ99" s="1"/>
-      <c r="EK99" s="1"/>
     </row>
-    <row r="100" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:130" ht="60.75" customHeight="1">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -24746,23 +23585,8 @@
       <c r="DZ100" s="1">
         <v>2</v>
       </c>
-      <c r="EA100" s="1">
-        <v>2</v>
-      </c>
-      <c r="EB100" s="1">
-        <v>2</v>
-      </c>
-      <c r="EC100" s="1"/>
-      <c r="ED100" s="1"/>
-      <c r="EE100" s="1"/>
-      <c r="EF100" s="1"/>
-      <c r="EG100" s="1"/>
-      <c r="EH100" s="1"/>
-      <c r="EI100" s="1"/>
-      <c r="EJ100" s="1"/>
-      <c r="EK100" s="1"/>
     </row>
-    <row r="101" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:130" ht="60.75" customHeight="1">
       <c r="A101" s="1">
         <v>1</v>
       </c>
@@ -25027,23 +23851,8 @@
       <c r="DZ101" s="13">
         <v>2</v>
       </c>
-      <c r="EA101" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB101" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC101" s="13"/>
-      <c r="ED101" s="13"/>
-      <c r="EE101" s="13"/>
-      <c r="EF101" s="13"/>
-      <c r="EG101" s="13"/>
-      <c r="EH101" s="13"/>
-      <c r="EI101" s="1"/>
-      <c r="EJ101" s="1"/>
-      <c r="EK101" s="1"/>
     </row>
-    <row r="102" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:130" ht="60.75" customHeight="1">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -25310,23 +24119,8 @@
       <c r="DZ102" s="13">
         <v>2</v>
       </c>
-      <c r="EA102" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB102" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC102" s="13"/>
-      <c r="ED102" s="13"/>
-      <c r="EE102" s="13"/>
-      <c r="EF102" s="13"/>
-      <c r="EG102" s="13"/>
-      <c r="EH102" s="13"/>
-      <c r="EI102" s="1"/>
-      <c r="EJ102" s="1"/>
-      <c r="EK102" s="1"/>
     </row>
-    <row r="103" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:130" ht="60.75" customHeight="1">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -25593,23 +24387,8 @@
       <c r="DZ103" s="13">
         <v>2</v>
       </c>
-      <c r="EA103" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB103" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC103" s="13"/>
-      <c r="ED103" s="13"/>
-      <c r="EE103" s="13"/>
-      <c r="EF103" s="13"/>
-      <c r="EG103" s="13"/>
-      <c r="EH103" s="13"/>
-      <c r="EI103" s="1"/>
-      <c r="EJ103" s="1"/>
-      <c r="EK103" s="1"/>
     </row>
-    <row r="104" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:130" ht="60.75" customHeight="1">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -25876,23 +24655,8 @@
       <c r="DZ104" s="13">
         <v>2</v>
       </c>
-      <c r="EA104" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB104" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC104" s="13"/>
-      <c r="ED104" s="13"/>
-      <c r="EE104" s="13"/>
-      <c r="EF104" s="13"/>
-      <c r="EG104" s="13"/>
-      <c r="EH104" s="13"/>
-      <c r="EI104" s="1"/>
-      <c r="EJ104" s="1"/>
-      <c r="EK104" s="1"/>
     </row>
-    <row r="105" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:130" ht="60.75" customHeight="1">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -26125,23 +24889,8 @@
       <c r="DZ105" s="13">
         <v>2</v>
       </c>
-      <c r="EA105" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB105" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC105" s="13"/>
-      <c r="ED105" s="13"/>
-      <c r="EE105" s="13"/>
-      <c r="EF105" s="13"/>
-      <c r="EG105" s="13"/>
-      <c r="EH105" s="13"/>
-      <c r="EI105" s="1"/>
-      <c r="EJ105" s="1"/>
-      <c r="EK105" s="1"/>
     </row>
-    <row r="106" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:130" ht="60.75" customHeight="1">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -26392,23 +25141,8 @@
       <c r="DZ106" s="13">
         <v>2</v>
       </c>
-      <c r="EA106" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB106" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC106" s="13"/>
-      <c r="ED106" s="13"/>
-      <c r="EE106" s="13"/>
-      <c r="EF106" s="13"/>
-      <c r="EG106" s="13"/>
-      <c r="EH106" s="13"/>
-      <c r="EI106" s="1"/>
-      <c r="EJ106" s="1"/>
-      <c r="EK106" s="1"/>
     </row>
-    <row r="107" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:130" ht="60.75" customHeight="1">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -26679,23 +25413,8 @@
       <c r="DZ107" s="13">
         <v>2</v>
       </c>
-      <c r="EA107" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB107" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC107" s="13"/>
-      <c r="ED107" s="13"/>
-      <c r="EE107" s="13"/>
-      <c r="EF107" s="13"/>
-      <c r="EG107" s="13"/>
-      <c r="EH107" s="13"/>
-      <c r="EI107" s="1"/>
-      <c r="EJ107" s="1"/>
-      <c r="EK107" s="1"/>
     </row>
-    <row r="108" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:130" ht="60.75" customHeight="1">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -26770,7 +25489,9 @@
       <c r="AB108" s="13"/>
       <c r="AC108" s="13"/>
       <c r="AD108" s="13"/>
-      <c r="AE108" s="13"/>
+      <c r="AE108" s="9">
+        <v>5</v>
+      </c>
       <c r="AF108" s="13">
         <v>2</v>
       </c>
@@ -26966,23 +25687,8 @@
       <c r="DZ108" s="13">
         <v>2</v>
       </c>
-      <c r="EA108" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB108" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC108" s="13"/>
-      <c r="ED108" s="13"/>
-      <c r="EE108" s="13"/>
-      <c r="EF108" s="13"/>
-      <c r="EG108" s="13"/>
-      <c r="EH108" s="13"/>
-      <c r="EI108" s="1"/>
-      <c r="EJ108" s="1"/>
-      <c r="EK108" s="1"/>
     </row>
-    <row r="109" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:130" ht="60.75" customHeight="1">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -27255,23 +25961,8 @@
       <c r="DZ109" s="13">
         <v>2</v>
       </c>
-      <c r="EA109" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB109" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC109" s="13"/>
-      <c r="ED109" s="13"/>
-      <c r="EE109" s="13"/>
-      <c r="EF109" s="13"/>
-      <c r="EG109" s="13"/>
-      <c r="EH109" s="13"/>
-      <c r="EI109" s="1"/>
-      <c r="EJ109" s="1"/>
-      <c r="EK109" s="1"/>
     </row>
-    <row r="110" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:130" ht="60.75" customHeight="1">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -27540,23 +26231,8 @@
       <c r="DZ110" s="13">
         <v>2</v>
       </c>
-      <c r="EA110" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB110" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC110" s="13"/>
-      <c r="ED110" s="13"/>
-      <c r="EE110" s="13"/>
-      <c r="EF110" s="13"/>
-      <c r="EG110" s="13"/>
-      <c r="EH110" s="13"/>
-      <c r="EI110" s="1"/>
-      <c r="EJ110" s="1"/>
-      <c r="EK110" s="1"/>
     </row>
-    <row r="111" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:130" ht="60.75" customHeight="1">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -27827,23 +26503,8 @@
       <c r="DZ111" s="13">
         <v>2</v>
       </c>
-      <c r="EA111" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB111" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC111" s="13"/>
-      <c r="ED111" s="13"/>
-      <c r="EE111" s="13"/>
-      <c r="EF111" s="13"/>
-      <c r="EG111" s="13"/>
-      <c r="EH111" s="13"/>
-      <c r="EI111" s="1"/>
-      <c r="EJ111" s="1"/>
-      <c r="EK111" s="1"/>
     </row>
-    <row r="112" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:130" ht="60.75" customHeight="1">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -28110,23 +26771,8 @@
       <c r="DZ112" s="13">
         <v>2</v>
       </c>
-      <c r="EA112" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB112" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC112" s="13"/>
-      <c r="ED112" s="13"/>
-      <c r="EE112" s="13"/>
-      <c r="EF112" s="13"/>
-      <c r="EG112" s="13"/>
-      <c r="EH112" s="13"/>
-      <c r="EI112" s="1"/>
-      <c r="EJ112" s="1"/>
-      <c r="EK112" s="1"/>
     </row>
-    <row r="113" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:130" ht="60.75" customHeight="1">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -28393,23 +27039,8 @@
       <c r="DZ113" s="13">
         <v>2</v>
       </c>
-      <c r="EA113" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB113" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC113" s="13"/>
-      <c r="ED113" s="13"/>
-      <c r="EE113" s="13"/>
-      <c r="EF113" s="13"/>
-      <c r="EG113" s="13"/>
-      <c r="EH113" s="13"/>
-      <c r="EI113" s="1"/>
-      <c r="EJ113" s="1"/>
-      <c r="EK113" s="1"/>
     </row>
-    <row r="114" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:130" ht="60.75" customHeight="1">
       <c r="A114" s="1">
         <v>1</v>
       </c>
@@ -28674,23 +27305,8 @@
       <c r="DZ114" s="13">
         <v>2</v>
       </c>
-      <c r="EA114" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB114" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC114" s="13"/>
-      <c r="ED114" s="13"/>
-      <c r="EE114" s="13"/>
-      <c r="EF114" s="13"/>
-      <c r="EG114" s="13"/>
-      <c r="EH114" s="13"/>
-      <c r="EI114" s="1"/>
-      <c r="EJ114" s="1"/>
-      <c r="EK114" s="1"/>
     </row>
-    <row r="115" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:130" ht="60.75" customHeight="1">
       <c r="A115" s="1">
         <v>1</v>
       </c>
@@ -28951,23 +27567,8 @@
       <c r="DZ115" s="13">
         <v>2</v>
       </c>
-      <c r="EA115" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB115" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC115" s="13"/>
-      <c r="ED115" s="13"/>
-      <c r="EE115" s="13"/>
-      <c r="EF115" s="13"/>
-      <c r="EG115" s="13"/>
-      <c r="EH115" s="13"/>
-      <c r="EI115" s="1"/>
-      <c r="EJ115" s="1"/>
-      <c r="EK115" s="1"/>
     </row>
-    <row r="116" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:130" ht="60.75" customHeight="1">
       <c r="A116" s="1">
         <v>1</v>
       </c>
@@ -29210,23 +27811,8 @@
       <c r="DZ116" s="13">
         <v>2</v>
       </c>
-      <c r="EA116" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB116" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC116" s="13"/>
-      <c r="ED116" s="13"/>
-      <c r="EE116" s="13"/>
-      <c r="EF116" s="13"/>
-      <c r="EG116" s="13"/>
-      <c r="EH116" s="13"/>
-      <c r="EI116" s="1"/>
-      <c r="EJ116" s="1"/>
-      <c r="EK116" s="1"/>
     </row>
-    <row r="117" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:130" ht="60.75" customHeight="1">
       <c r="A117" s="1">
         <v>1</v>
       </c>
@@ -29461,23 +28047,8 @@
       <c r="DZ117" s="13">
         <v>2</v>
       </c>
-      <c r="EA117" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB117" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC117" s="13"/>
-      <c r="ED117" s="13"/>
-      <c r="EE117" s="13"/>
-      <c r="EF117" s="13"/>
-      <c r="EG117" s="13"/>
-      <c r="EH117" s="13"/>
-      <c r="EI117" s="1"/>
-      <c r="EJ117" s="1"/>
-      <c r="EK117" s="1"/>
     </row>
-    <row r="118" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:130" ht="60.75" customHeight="1">
       <c r="A118" s="1">
         <v>1</v>
       </c>
@@ -29692,23 +28263,8 @@
       <c r="DZ118" s="13">
         <v>2</v>
       </c>
-      <c r="EA118" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB118" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC118" s="13"/>
-      <c r="ED118" s="13"/>
-      <c r="EE118" s="13"/>
-      <c r="EF118" s="13"/>
-      <c r="EG118" s="13"/>
-      <c r="EH118" s="13"/>
-      <c r="EI118" s="1"/>
-      <c r="EJ118" s="1"/>
-      <c r="EK118" s="1"/>
     </row>
-    <row r="119" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:130" ht="60.75" customHeight="1">
       <c r="A119" s="1">
         <v>1</v>
       </c>
@@ -29923,23 +28479,8 @@
       <c r="DZ119" s="13">
         <v>2</v>
       </c>
-      <c r="EA119" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB119" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC119" s="13"/>
-      <c r="ED119" s="13"/>
-      <c r="EE119" s="13"/>
-      <c r="EF119" s="13"/>
-      <c r="EG119" s="13"/>
-      <c r="EH119" s="13"/>
-      <c r="EI119" s="1"/>
-      <c r="EJ119" s="1"/>
-      <c r="EK119" s="1"/>
     </row>
-    <row r="120" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:130" ht="60.75" customHeight="1">
       <c r="A120" s="1">
         <v>1</v>
       </c>
@@ -30104,23 +28645,8 @@
       <c r="DZ120" s="13">
         <v>2</v>
       </c>
-      <c r="EA120" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB120" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC120" s="13"/>
-      <c r="ED120" s="13"/>
-      <c r="EE120" s="13"/>
-      <c r="EF120" s="13"/>
-      <c r="EG120" s="13"/>
-      <c r="EH120" s="13"/>
-      <c r="EI120" s="1"/>
-      <c r="EJ120" s="1"/>
-      <c r="EK120" s="1"/>
     </row>
-    <row r="121" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:130" ht="60.75" customHeight="1">
       <c r="A121" s="1">
         <v>1</v>
       </c>
@@ -30285,23 +28811,8 @@
       <c r="DZ121" s="13">
         <v>2</v>
       </c>
-      <c r="EA121" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB121" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC121" s="13"/>
-      <c r="ED121" s="13"/>
-      <c r="EE121" s="13"/>
-      <c r="EF121" s="13"/>
-      <c r="EG121" s="13"/>
-      <c r="EH121" s="13"/>
-      <c r="EI121" s="1"/>
-      <c r="EJ121" s="1"/>
-      <c r="EK121" s="1"/>
     </row>
-    <row r="122" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:130" ht="60.75" customHeight="1">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -30466,23 +28977,8 @@
       <c r="DZ122" s="13">
         <v>2</v>
       </c>
-      <c r="EA122" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB122" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC122" s="13"/>
-      <c r="ED122" s="13"/>
-      <c r="EE122" s="13"/>
-      <c r="EF122" s="13"/>
-      <c r="EG122" s="13"/>
-      <c r="EH122" s="13"/>
-      <c r="EI122" s="1"/>
-      <c r="EJ122" s="1"/>
-      <c r="EK122" s="1"/>
     </row>
-    <row r="123" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:130" ht="60.75" customHeight="1">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -30651,23 +29147,8 @@
       <c r="DZ123" s="13">
         <v>2</v>
       </c>
-      <c r="EA123" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB123" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC123" s="13"/>
-      <c r="ED123" s="13"/>
-      <c r="EE123" s="13"/>
-      <c r="EF123" s="13"/>
-      <c r="EG123" s="13"/>
-      <c r="EH123" s="13"/>
-      <c r="EI123" s="1"/>
-      <c r="EJ123" s="1"/>
-      <c r="EK123" s="1"/>
     </row>
-    <row r="124" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:130" ht="60.75" customHeight="1">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -30832,23 +29313,8 @@
       <c r="DZ124" s="13">
         <v>2</v>
       </c>
-      <c r="EA124" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB124" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC124" s="13"/>
-      <c r="ED124" s="13"/>
-      <c r="EE124" s="13"/>
-      <c r="EF124" s="13"/>
-      <c r="EG124" s="13"/>
-      <c r="EH124" s="13"/>
-      <c r="EI124" s="1"/>
-      <c r="EJ124" s="1"/>
-      <c r="EK124" s="1"/>
     </row>
-    <row r="125" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:130" ht="60.75" customHeight="1">
       <c r="A125" s="1">
         <v>1</v>
       </c>
@@ -31015,23 +29481,8 @@
       <c r="DZ125" s="13">
         <v>2</v>
       </c>
-      <c r="EA125" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB125" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC125" s="13"/>
-      <c r="ED125" s="13"/>
-      <c r="EE125" s="13"/>
-      <c r="EF125" s="13"/>
-      <c r="EG125" s="13"/>
-      <c r="EH125" s="13"/>
-      <c r="EI125" s="1"/>
-      <c r="EJ125" s="1"/>
-      <c r="EK125" s="1"/>
     </row>
-    <row r="126" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:130" ht="60.75" customHeight="1">
       <c r="A126" s="1">
         <v>1</v>
       </c>
@@ -31190,23 +29641,8 @@
       <c r="DZ126" s="13">
         <v>2</v>
       </c>
-      <c r="EA126" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB126" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC126" s="13"/>
-      <c r="ED126" s="13"/>
-      <c r="EE126" s="13"/>
-      <c r="EF126" s="13"/>
-      <c r="EG126" s="13"/>
-      <c r="EH126" s="13"/>
-      <c r="EI126" s="1"/>
-      <c r="EJ126" s="1"/>
-      <c r="EK126" s="1"/>
     </row>
-    <row r="127" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:130" ht="60.75" customHeight="1">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -31363,23 +29799,8 @@
       <c r="DZ127" s="13">
         <v>2</v>
       </c>
-      <c r="EA127" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB127" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC127" s="13"/>
-      <c r="ED127" s="13"/>
-      <c r="EE127" s="13"/>
-      <c r="EF127" s="13"/>
-      <c r="EG127" s="13"/>
-      <c r="EH127" s="13"/>
-      <c r="EI127" s="1"/>
-      <c r="EJ127" s="1"/>
-      <c r="EK127" s="1"/>
     </row>
-    <row r="128" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:130" ht="60.75" customHeight="1">
       <c r="A128" s="1">
         <v>1</v>
       </c>
@@ -31536,23 +29957,8 @@
       <c r="DZ128" s="13">
         <v>2</v>
       </c>
-      <c r="EA128" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB128" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC128" s="13"/>
-      <c r="ED128" s="13"/>
-      <c r="EE128" s="13"/>
-      <c r="EF128" s="13"/>
-      <c r="EG128" s="13"/>
-      <c r="EH128" s="13"/>
-      <c r="EI128" s="1"/>
-      <c r="EJ128" s="1"/>
-      <c r="EK128" s="1"/>
     </row>
-    <row r="129" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:155" ht="60.75" customHeight="1">
       <c r="A129" s="1">
         <v>1</v>
       </c>
@@ -31737,23 +30143,8 @@
       <c r="DZ129" s="13">
         <v>2</v>
       </c>
-      <c r="EA129" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB129" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC129" s="13"/>
-      <c r="ED129" s="13"/>
-      <c r="EE129" s="13"/>
-      <c r="EF129" s="13"/>
-      <c r="EG129" s="13"/>
-      <c r="EH129" s="13"/>
-      <c r="EI129" s="1"/>
-      <c r="EJ129" s="1"/>
-      <c r="EK129" s="1"/>
     </row>
-    <row r="130" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:155" ht="60.75" customHeight="1">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -31906,24 +30297,9 @@
       <c r="DZ130" s="13">
         <v>2</v>
       </c>
-      <c r="EA130" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB130" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC130" s="13"/>
-      <c r="ED130" s="13"/>
-      <c r="EE130" s="13"/>
-      <c r="EF130" s="13"/>
-      <c r="EG130" s="13"/>
-      <c r="EH130" s="13"/>
-      <c r="EI130" s="1"/>
-      <c r="EJ130" s="1"/>
-      <c r="EK130" s="1"/>
-      <c r="FJ130" s="14"/>
+      <c r="EY130" s="14"/>
     </row>
-    <row r="131" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:155" ht="60.75" customHeight="1">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -32158,23 +30534,8 @@
       <c r="DZ131" s="13">
         <v>2</v>
       </c>
-      <c r="EA131" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB131" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC131" s="13"/>
-      <c r="ED131" s="13"/>
-      <c r="EE131" s="13"/>
-      <c r="EF131" s="13"/>
-      <c r="EG131" s="13"/>
-      <c r="EH131" s="13"/>
-      <c r="EI131" s="1"/>
-      <c r="EJ131" s="1"/>
-      <c r="EK131" s="1"/>
     </row>
-    <row r="132" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:155" ht="60.75" customHeight="1">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -32411,23 +30772,8 @@
       <c r="DZ132" s="13">
         <v>2</v>
       </c>
-      <c r="EA132" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB132" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC132" s="13"/>
-      <c r="ED132" s="13"/>
-      <c r="EE132" s="13"/>
-      <c r="EF132" s="13"/>
-      <c r="EG132" s="13"/>
-      <c r="EH132" s="13"/>
-      <c r="EI132" s="1"/>
-      <c r="EJ132" s="1"/>
-      <c r="EK132" s="1"/>
     </row>
-    <row r="133" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:155" ht="60.75" customHeight="1">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -32662,23 +31008,8 @@
       <c r="DZ133" s="13">
         <v>2</v>
       </c>
-      <c r="EA133" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB133" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC133" s="13"/>
-      <c r="ED133" s="13"/>
-      <c r="EE133" s="13"/>
-      <c r="EF133" s="13"/>
-      <c r="EG133" s="13"/>
-      <c r="EH133" s="13"/>
-      <c r="EI133" s="1"/>
-      <c r="EJ133" s="1"/>
-      <c r="EK133" s="1"/>
     </row>
-    <row r="134" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:155" ht="60.75" customHeight="1">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -32997,23 +31328,8 @@
       <c r="DZ134" s="13">
         <v>2</v>
       </c>
-      <c r="EA134" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB134" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC134" s="13"/>
-      <c r="ED134" s="13"/>
-      <c r="EE134" s="13"/>
-      <c r="EF134" s="13"/>
-      <c r="EG134" s="13"/>
-      <c r="EH134" s="13"/>
-      <c r="EI134" s="1"/>
-      <c r="EJ134" s="1"/>
-      <c r="EK134" s="1"/>
     </row>
-    <row r="135" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:155" ht="60.75" customHeight="1">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -33332,23 +31648,8 @@
       <c r="DZ135" s="13">
         <v>2</v>
       </c>
-      <c r="EA135" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB135" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC135" s="13"/>
-      <c r="ED135" s="13"/>
-      <c r="EE135" s="13"/>
-      <c r="EF135" s="13"/>
-      <c r="EG135" s="13"/>
-      <c r="EH135" s="13"/>
-      <c r="EI135" s="1"/>
-      <c r="EJ135" s="1"/>
-      <c r="EK135" s="1"/>
     </row>
-    <row r="136" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:155" ht="60.75" customHeight="1">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -33669,23 +31970,8 @@
       <c r="DZ136" s="13">
         <v>2</v>
       </c>
-      <c r="EA136" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB136" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC136" s="13"/>
-      <c r="ED136" s="13"/>
-      <c r="EE136" s="13"/>
-      <c r="EF136" s="13"/>
-      <c r="EG136" s="13"/>
-      <c r="EH136" s="13"/>
-      <c r="EI136" s="1"/>
-      <c r="EJ136" s="1"/>
-      <c r="EK136" s="1"/>
     </row>
-    <row r="137" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:155" ht="60.75" customHeight="1">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -34006,23 +32292,8 @@
       <c r="DZ137" s="13">
         <v>2</v>
       </c>
-      <c r="EA137" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB137" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC137" s="13"/>
-      <c r="ED137" s="13"/>
-      <c r="EE137" s="13"/>
-      <c r="EF137" s="13"/>
-      <c r="EG137" s="13"/>
-      <c r="EH137" s="13"/>
-      <c r="EI137" s="1"/>
-      <c r="EJ137" s="1"/>
-      <c r="EK137" s="1"/>
     </row>
-    <row r="138" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:155" ht="60.75" customHeight="1">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -34341,23 +32612,8 @@
       <c r="DZ138" s="13">
         <v>2</v>
       </c>
-      <c r="EA138" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB138" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC138" s="13"/>
-      <c r="ED138" s="13"/>
-      <c r="EE138" s="13"/>
-      <c r="EF138" s="13"/>
-      <c r="EG138" s="13"/>
-      <c r="EH138" s="13"/>
-      <c r="EI138" s="1"/>
-      <c r="EJ138" s="1"/>
-      <c r="EK138" s="1"/>
     </row>
-    <row r="139" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:155" ht="60.75" customHeight="1">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -34656,23 +32912,8 @@
       <c r="DZ139" s="13">
         <v>2</v>
       </c>
-      <c r="EA139" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB139" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC139" s="13"/>
-      <c r="ED139" s="13"/>
-      <c r="EE139" s="13"/>
-      <c r="EF139" s="13"/>
-      <c r="EG139" s="13"/>
-      <c r="EH139" s="13"/>
-      <c r="EI139" s="1"/>
-      <c r="EJ139" s="1"/>
-      <c r="EK139" s="1"/>
     </row>
-    <row r="140" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:155" ht="60.75" customHeight="1">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -34971,23 +33212,8 @@
       <c r="DZ140" s="13">
         <v>2</v>
       </c>
-      <c r="EA140" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB140" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC140" s="13"/>
-      <c r="ED140" s="13"/>
-      <c r="EE140" s="13"/>
-      <c r="EF140" s="13"/>
-      <c r="EG140" s="13"/>
-      <c r="EH140" s="13"/>
-      <c r="EI140" s="1"/>
-      <c r="EJ140" s="1"/>
-      <c r="EK140" s="1"/>
     </row>
-    <row r="141" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:155" ht="60.75" customHeight="1">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -35286,23 +33512,8 @@
       <c r="DZ141" s="13">
         <v>2</v>
       </c>
-      <c r="EA141" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB141" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC141" s="13"/>
-      <c r="ED141" s="13"/>
-      <c r="EE141" s="13"/>
-      <c r="EF141" s="13"/>
-      <c r="EG141" s="13"/>
-      <c r="EH141" s="13"/>
-      <c r="EI141" s="1"/>
-      <c r="EJ141" s="1"/>
-      <c r="EK141" s="1"/>
     </row>
-    <row r="142" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:155" ht="60.75" customHeight="1">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -35601,23 +33812,8 @@
       <c r="DZ142" s="13">
         <v>2</v>
       </c>
-      <c r="EA142" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB142" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC142" s="13"/>
-      <c r="ED142" s="13"/>
-      <c r="EE142" s="13"/>
-      <c r="EF142" s="13"/>
-      <c r="EG142" s="13"/>
-      <c r="EH142" s="13"/>
-      <c r="EI142" s="1"/>
-      <c r="EJ142" s="1"/>
-      <c r="EK142" s="1"/>
     </row>
-    <row r="143" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:155" ht="60.75" customHeight="1">
       <c r="A143" s="1">
         <v>2</v>
       </c>
@@ -35916,23 +34112,8 @@
       <c r="DZ143" s="13">
         <v>2</v>
       </c>
-      <c r="EA143" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB143" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC143" s="13"/>
-      <c r="ED143" s="13"/>
-      <c r="EE143" s="13"/>
-      <c r="EF143" s="13"/>
-      <c r="EG143" s="13"/>
-      <c r="EH143" s="13"/>
-      <c r="EI143" s="1"/>
-      <c r="EJ143" s="1"/>
-      <c r="EK143" s="1"/>
     </row>
-    <row r="144" spans="1:166" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:155" ht="60.75" customHeight="1">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -36231,23 +34412,8 @@
       <c r="DZ144" s="13">
         <v>2</v>
       </c>
-      <c r="EA144" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB144" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC144" s="13"/>
-      <c r="ED144" s="13"/>
-      <c r="EE144" s="13"/>
-      <c r="EF144" s="13"/>
-      <c r="EG144" s="13"/>
-      <c r="EH144" s="13"/>
-      <c r="EI144" s="1"/>
-      <c r="EJ144" s="1"/>
-      <c r="EK144" s="1"/>
     </row>
-    <row r="145" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:130" ht="60.75" customHeight="1">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -36638,1346 +34804,412 @@
       <c r="DZ145" s="13">
         <v>2</v>
       </c>
-      <c r="EA145" s="13">
-        <v>2</v>
-      </c>
-      <c r="EB145" s="13">
-        <v>2</v>
-      </c>
-      <c r="EC145" s="13"/>
-      <c r="ED145" s="13"/>
-      <c r="EE145" s="13"/>
-      <c r="EF145" s="13"/>
-      <c r="EG145" s="13"/>
-      <c r="EH145" s="13"/>
-      <c r="EI145" s="1"/>
-      <c r="EJ145" s="1"/>
-      <c r="EK145" s="1"/>
     </row>
-    <row r="146" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="13"/>
-      <c r="O146" s="13"/>
-      <c r="P146" s="13"/>
-      <c r="Q146" s="13"/>
-      <c r="R146" s="13"/>
-      <c r="S146" s="13"/>
-      <c r="T146" s="13"/>
-      <c r="U146" s="13"/>
-      <c r="V146" s="13"/>
-      <c r="W146" s="13"/>
-      <c r="X146" s="13"/>
-      <c r="Y146" s="13"/>
-      <c r="Z146" s="13"/>
-      <c r="AA146" s="13"/>
-      <c r="AB146" s="13"/>
-      <c r="AC146" s="13"/>
-      <c r="AD146" s="13"/>
-      <c r="AE146" s="13"/>
-      <c r="AF146" s="13"/>
-      <c r="AG146" s="13"/>
-      <c r="AH146" s="13"/>
-      <c r="AI146" s="13"/>
-      <c r="AJ146" s="13"/>
-      <c r="AK146" s="13"/>
-      <c r="AL146" s="13"/>
-      <c r="AM146" s="13"/>
-      <c r="AN146" s="13"/>
-      <c r="AO146" s="13"/>
-      <c r="AP146" s="13"/>
-      <c r="AQ146" s="13"/>
-      <c r="AR146" s="13"/>
-      <c r="AS146" s="13"/>
-      <c r="AT146" s="13"/>
-      <c r="AU146" s="13"/>
-      <c r="AV146" s="13"/>
-      <c r="AW146" s="13"/>
-      <c r="AX146" s="13"/>
-      <c r="AY146" s="13"/>
-      <c r="AZ146" s="13"/>
-      <c r="BA146" s="13"/>
-      <c r="BB146" s="13"/>
-      <c r="BC146" s="13"/>
-      <c r="BD146" s="13"/>
-      <c r="BE146" s="13"/>
-      <c r="BF146" s="13"/>
-      <c r="BG146" s="13"/>
-      <c r="BH146" s="13"/>
-      <c r="BI146" s="13"/>
-      <c r="BJ146" s="13"/>
-      <c r="BK146" s="13"/>
-      <c r="BL146" s="13"/>
-      <c r="BM146" s="13"/>
-      <c r="BN146" s="13"/>
-      <c r="BO146" s="13"/>
-      <c r="BP146" s="13"/>
-      <c r="BQ146" s="13"/>
-      <c r="BR146" s="13"/>
-      <c r="BS146" s="13"/>
-      <c r="BT146" s="13"/>
-      <c r="BU146" s="13"/>
-      <c r="BV146" s="13"/>
-      <c r="BW146" s="13"/>
-      <c r="BX146" s="13"/>
-      <c r="BY146" s="13"/>
-      <c r="BZ146" s="13"/>
-      <c r="CA146" s="13"/>
-      <c r="CB146" s="13"/>
-      <c r="CC146" s="13"/>
-      <c r="CD146" s="13"/>
-      <c r="CE146" s="13"/>
-      <c r="CF146" s="13"/>
-      <c r="CG146" s="13"/>
-      <c r="CH146" s="13"/>
-      <c r="CI146" s="13"/>
-      <c r="CJ146" s="13"/>
-      <c r="CK146" s="13"/>
-      <c r="CL146" s="13"/>
-      <c r="CM146" s="13"/>
-      <c r="CN146" s="13"/>
-      <c r="CO146" s="13"/>
-      <c r="CP146" s="13"/>
-      <c r="CQ146" s="13"/>
-      <c r="CR146" s="13"/>
-      <c r="CS146" s="13"/>
-      <c r="CT146" s="13"/>
-      <c r="CU146" s="1"/>
-      <c r="CV146" s="1"/>
-      <c r="CW146" s="13"/>
-      <c r="CX146" s="13"/>
-      <c r="CY146" s="13"/>
-      <c r="CZ146" s="13"/>
-      <c r="DA146" s="13"/>
-      <c r="DB146" s="13"/>
-      <c r="DC146" s="13"/>
-      <c r="DD146" s="13"/>
-      <c r="DE146" s="13"/>
-      <c r="DF146" s="13"/>
-      <c r="DG146" s="13"/>
-      <c r="DH146" s="13"/>
-      <c r="DI146" s="13"/>
-      <c r="DJ146" s="13"/>
-      <c r="DK146" s="13"/>
-      <c r="DL146" s="13"/>
-      <c r="DM146" s="13"/>
-      <c r="DN146" s="13"/>
-      <c r="DO146" s="13"/>
-      <c r="DP146" s="13"/>
-      <c r="DQ146" s="13"/>
-      <c r="DR146" s="13"/>
-      <c r="DS146" s="13"/>
-      <c r="DT146" s="13"/>
-      <c r="DU146" s="13"/>
-      <c r="DV146" s="13"/>
-      <c r="DW146" s="13"/>
-      <c r="DX146" s="13"/>
-      <c r="DY146" s="13"/>
-      <c r="DZ146" s="13"/>
-      <c r="EA146" s="13"/>
-      <c r="EB146" s="13"/>
-      <c r="EC146" s="13"/>
-      <c r="ED146" s="13"/>
-      <c r="EE146" s="13"/>
-      <c r="EF146" s="13"/>
-      <c r="EG146" s="13"/>
-      <c r="EH146" s="13"/>
-      <c r="EI146" s="1"/>
-      <c r="EJ146" s="1"/>
-      <c r="EK146" s="1"/>
-    </row>
-    <row r="147" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="13"/>
-      <c r="K147" s="13"/>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="13"/>
-      <c r="O147" s="13"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="13"/>
-      <c r="R147" s="13"/>
-      <c r="S147" s="13"/>
-      <c r="T147" s="13"/>
-      <c r="U147" s="13"/>
-      <c r="V147" s="13"/>
-      <c r="W147" s="13"/>
-      <c r="X147" s="13"/>
-      <c r="Y147" s="13"/>
-      <c r="Z147" s="13"/>
-      <c r="AA147" s="13"/>
-      <c r="AB147" s="13"/>
-      <c r="AC147" s="13"/>
-      <c r="AD147" s="13"/>
-      <c r="AE147" s="13"/>
-      <c r="AF147" s="13"/>
-      <c r="AG147" s="13"/>
-      <c r="AH147" s="13"/>
-      <c r="AI147" s="13"/>
-      <c r="AJ147" s="13"/>
-      <c r="AK147" s="13"/>
-      <c r="AL147" s="13"/>
-      <c r="AM147" s="13"/>
-      <c r="AN147" s="13"/>
-      <c r="AO147" s="13"/>
-      <c r="AP147" s="13"/>
-      <c r="AQ147" s="13"/>
-      <c r="AR147" s="13"/>
-      <c r="AS147" s="13"/>
-      <c r="AT147" s="13"/>
-      <c r="AU147" s="13"/>
-      <c r="AV147" s="13"/>
-      <c r="AW147" s="13"/>
-      <c r="AX147" s="13"/>
-      <c r="AY147" s="13"/>
-      <c r="AZ147" s="13"/>
-      <c r="BA147" s="13"/>
-      <c r="BB147" s="13"/>
-      <c r="BC147" s="13"/>
-      <c r="BD147" s="13"/>
-      <c r="BE147" s="13"/>
-      <c r="BF147" s="13"/>
-      <c r="BG147" s="13"/>
-      <c r="BH147" s="13"/>
-      <c r="BI147" s="13"/>
-      <c r="BJ147" s="13"/>
-      <c r="BK147" s="13"/>
-      <c r="BL147" s="13"/>
-      <c r="BM147" s="13"/>
-      <c r="BN147" s="13"/>
-      <c r="BO147" s="13"/>
-      <c r="BP147" s="13"/>
-      <c r="BQ147" s="13"/>
-      <c r="BR147" s="13"/>
-      <c r="BS147" s="13"/>
-      <c r="BT147" s="13"/>
-      <c r="BU147" s="13"/>
-      <c r="BV147" s="13"/>
-      <c r="BW147" s="13"/>
-      <c r="BX147" s="13"/>
-      <c r="BY147" s="13"/>
-      <c r="BZ147" s="13"/>
-      <c r="CA147" s="13"/>
-      <c r="CB147" s="13"/>
-      <c r="CC147" s="13"/>
-      <c r="CD147" s="13"/>
-      <c r="CE147" s="13"/>
-      <c r="CF147" s="13"/>
-      <c r="CG147" s="13"/>
-      <c r="CH147" s="13"/>
-      <c r="CI147" s="13"/>
-      <c r="CJ147" s="13"/>
-      <c r="CK147" s="13"/>
-      <c r="CL147" s="13"/>
-      <c r="CM147" s="13"/>
-      <c r="CN147" s="13"/>
-      <c r="CO147" s="13"/>
-      <c r="CP147" s="13"/>
-      <c r="CQ147" s="13"/>
-      <c r="CR147" s="13"/>
-      <c r="CS147" s="13"/>
-      <c r="CT147" s="13"/>
-      <c r="CU147" s="1"/>
-      <c r="CV147" s="1"/>
-      <c r="CW147" s="13"/>
-      <c r="CX147" s="13"/>
-      <c r="CY147" s="13"/>
-      <c r="CZ147" s="13"/>
-      <c r="DA147" s="13"/>
-      <c r="DB147" s="13"/>
-      <c r="DC147" s="13"/>
-      <c r="DD147" s="13"/>
-      <c r="DE147" s="13"/>
-      <c r="DF147" s="13"/>
-      <c r="DG147" s="13"/>
-      <c r="DH147" s="13"/>
-      <c r="DI147" s="13"/>
-      <c r="DJ147" s="13"/>
-      <c r="DK147" s="13"/>
-      <c r="DL147" s="13"/>
-      <c r="DM147" s="13"/>
-      <c r="DN147" s="13"/>
-      <c r="DO147" s="13"/>
-      <c r="DP147" s="13"/>
-      <c r="DQ147" s="13"/>
-      <c r="DR147" s="13"/>
-      <c r="DS147" s="13"/>
-      <c r="DT147" s="13"/>
-      <c r="DU147" s="13"/>
-      <c r="DV147" s="13"/>
-      <c r="DW147" s="13"/>
-      <c r="DX147" s="13"/>
-      <c r="DY147" s="13"/>
-      <c r="DZ147" s="13"/>
-      <c r="EA147" s="13"/>
-      <c r="EB147" s="13"/>
-      <c r="EC147" s="13"/>
-      <c r="ED147" s="13"/>
-      <c r="EE147" s="13"/>
-      <c r="EF147" s="13"/>
-      <c r="EG147" s="13"/>
-      <c r="EH147" s="13"/>
-      <c r="EI147" s="1"/>
-      <c r="EJ147" s="1"/>
-      <c r="EK147" s="1"/>
-    </row>
-    <row r="148" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="13"/>
-      <c r="K148" s="13"/>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
-      <c r="O148" s="13"/>
-      <c r="P148" s="13"/>
-      <c r="Q148" s="13"/>
-      <c r="R148" s="13"/>
-      <c r="S148" s="13"/>
-      <c r="T148" s="13"/>
-      <c r="U148" s="13"/>
-      <c r="V148" s="13"/>
-      <c r="W148" s="13"/>
-      <c r="X148" s="13"/>
-      <c r="Y148" s="13"/>
-      <c r="Z148" s="13"/>
-      <c r="AA148" s="13"/>
-      <c r="AB148" s="13"/>
-      <c r="AC148" s="13"/>
-      <c r="AD148" s="13"/>
-      <c r="AE148" s="13"/>
-      <c r="AF148" s="13"/>
-      <c r="AG148" s="13"/>
-      <c r="AH148" s="13"/>
-      <c r="AI148" s="13"/>
-      <c r="AJ148" s="13"/>
-      <c r="AK148" s="13"/>
-      <c r="AL148" s="13"/>
-      <c r="AM148" s="13"/>
-      <c r="AN148" s="13"/>
-      <c r="AO148" s="13"/>
-      <c r="AP148" s="13"/>
-      <c r="AQ148" s="13"/>
-      <c r="AR148" s="13"/>
-      <c r="AS148" s="13"/>
-      <c r="AT148" s="13"/>
-      <c r="AU148" s="13"/>
-      <c r="AV148" s="13"/>
-      <c r="AW148" s="13"/>
-      <c r="AX148" s="13"/>
-      <c r="AY148" s="13"/>
-      <c r="AZ148" s="13"/>
-      <c r="BA148" s="13"/>
-      <c r="BB148" s="13"/>
-      <c r="BC148" s="13"/>
-      <c r="BD148" s="13"/>
-      <c r="BE148" s="13"/>
-      <c r="BF148" s="13"/>
-      <c r="BG148" s="13"/>
-      <c r="BH148" s="13"/>
-      <c r="BI148" s="13"/>
-      <c r="BJ148" s="13"/>
-      <c r="BK148" s="13"/>
-      <c r="BL148" s="13"/>
-      <c r="BM148" s="13"/>
-      <c r="BN148" s="13"/>
-      <c r="BO148" s="13"/>
-      <c r="BP148" s="13"/>
-      <c r="BQ148" s="13"/>
-      <c r="BR148" s="13"/>
-      <c r="BS148" s="13"/>
-      <c r="BT148" s="13"/>
-      <c r="BU148" s="13"/>
-      <c r="BV148" s="13"/>
-      <c r="BW148" s="13"/>
-      <c r="BX148" s="13"/>
-      <c r="BY148" s="13"/>
-      <c r="BZ148" s="13"/>
-      <c r="CA148" s="13"/>
-      <c r="CB148" s="13"/>
-      <c r="CC148" s="13"/>
-      <c r="CD148" s="13"/>
-      <c r="CE148" s="13"/>
-      <c r="CF148" s="13"/>
-      <c r="CG148" s="13"/>
-      <c r="CH148" s="13"/>
-      <c r="CI148" s="13"/>
-      <c r="CJ148" s="13"/>
-      <c r="CK148" s="13"/>
-      <c r="CL148" s="13"/>
-      <c r="CM148" s="13"/>
-      <c r="CN148" s="13"/>
-      <c r="CO148" s="13"/>
-      <c r="CP148" s="13"/>
-      <c r="CQ148" s="13"/>
-      <c r="CR148" s="13"/>
-      <c r="CS148" s="13"/>
-      <c r="CT148" s="13"/>
-      <c r="CU148" s="1"/>
-      <c r="CV148" s="1"/>
-      <c r="CW148" s="13"/>
-      <c r="CX148" s="13"/>
-      <c r="CY148" s="13"/>
-      <c r="CZ148" s="13"/>
-      <c r="DA148" s="13"/>
-      <c r="DB148" s="13"/>
-      <c r="DC148" s="13"/>
-      <c r="DD148" s="13"/>
-      <c r="DE148" s="13"/>
-      <c r="DF148" s="13"/>
-      <c r="DG148" s="13"/>
-      <c r="DH148" s="13"/>
-      <c r="DI148" s="13"/>
-      <c r="DJ148" s="13"/>
-      <c r="DK148" s="13"/>
-      <c r="DL148" s="13"/>
-      <c r="DM148" s="13"/>
-      <c r="DN148" s="13"/>
-      <c r="DO148" s="13"/>
-      <c r="DP148" s="13"/>
-      <c r="DQ148" s="13"/>
-      <c r="DR148" s="13"/>
-      <c r="DS148" s="13"/>
-      <c r="DT148" s="13"/>
-      <c r="DU148" s="13"/>
-      <c r="DV148" s="13"/>
-      <c r="DW148" s="13"/>
-      <c r="DX148" s="13"/>
-      <c r="DY148" s="13"/>
-      <c r="DZ148" s="13"/>
-      <c r="EA148" s="13"/>
-      <c r="EB148" s="13"/>
-      <c r="EC148" s="13"/>
-      <c r="ED148" s="13"/>
-      <c r="EE148" s="13"/>
-      <c r="EF148" s="13"/>
-      <c r="EG148" s="13"/>
-      <c r="EH148" s="13"/>
-      <c r="EI148" s="1"/>
-      <c r="EJ148" s="1"/>
-      <c r="EK148" s="1"/>
-    </row>
-    <row r="149" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="13"/>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
-      <c r="N149" s="13"/>
-      <c r="O149" s="13"/>
-      <c r="P149" s="13"/>
-      <c r="Q149" s="13"/>
-      <c r="R149" s="13"/>
-      <c r="S149" s="13"/>
-      <c r="T149" s="13"/>
-      <c r="U149" s="13"/>
-      <c r="V149" s="13"/>
-      <c r="W149" s="13"/>
-      <c r="X149" s="13"/>
-      <c r="Y149" s="13"/>
-      <c r="Z149" s="13"/>
-      <c r="AA149" s="13"/>
-      <c r="AB149" s="13"/>
-      <c r="AC149" s="13"/>
-      <c r="AD149" s="13"/>
-      <c r="AE149" s="13"/>
-      <c r="AF149" s="13"/>
-      <c r="AG149" s="13"/>
-      <c r="AH149" s="13"/>
-      <c r="AI149" s="13"/>
-      <c r="AJ149" s="13"/>
-      <c r="AK149" s="13"/>
-      <c r="AL149" s="13"/>
-      <c r="AM149" s="13"/>
-      <c r="AN149" s="13"/>
-      <c r="AO149" s="13"/>
-      <c r="AP149" s="13"/>
-      <c r="AQ149" s="13"/>
-      <c r="AR149" s="13"/>
-      <c r="AS149" s="13"/>
-      <c r="AT149" s="13"/>
-      <c r="AU149" s="13"/>
-      <c r="AV149" s="13"/>
-      <c r="AW149" s="13"/>
-      <c r="AX149" s="13"/>
-      <c r="AY149" s="13"/>
-      <c r="AZ149" s="13"/>
-      <c r="BA149" s="13"/>
-      <c r="BB149" s="13"/>
-      <c r="BC149" s="13"/>
-      <c r="BD149" s="13"/>
-      <c r="BE149" s="13"/>
-      <c r="BF149" s="13"/>
-      <c r="BG149" s="13"/>
-      <c r="BH149" s="13"/>
-      <c r="BI149" s="13"/>
-      <c r="BJ149" s="13"/>
-      <c r="BK149" s="13"/>
-      <c r="BL149" s="13"/>
-      <c r="BM149" s="13"/>
-      <c r="BN149" s="13"/>
-      <c r="BO149" s="13"/>
-      <c r="BP149" s="13"/>
-      <c r="BQ149" s="13"/>
-      <c r="BR149" s="13"/>
-      <c r="BS149" s="13"/>
-      <c r="BT149" s="13"/>
-      <c r="BU149" s="13"/>
-      <c r="BV149" s="13"/>
-      <c r="BW149" s="13"/>
-      <c r="BX149" s="13"/>
-      <c r="BY149" s="13"/>
-      <c r="BZ149" s="13"/>
-      <c r="CA149" s="13"/>
-      <c r="CB149" s="13"/>
-      <c r="CC149" s="13"/>
-      <c r="CD149" s="13"/>
-      <c r="CE149" s="13"/>
-      <c r="CF149" s="13"/>
-      <c r="CG149" s="13"/>
-      <c r="CH149" s="13"/>
-      <c r="CI149" s="13"/>
-      <c r="CJ149" s="13"/>
-      <c r="CK149" s="13"/>
-      <c r="CL149" s="13"/>
-      <c r="CM149" s="13"/>
-      <c r="CN149" s="13"/>
-      <c r="CO149" s="13"/>
-      <c r="CP149" s="13"/>
-      <c r="CQ149" s="13"/>
-      <c r="CR149" s="13"/>
-      <c r="CS149" s="13"/>
-      <c r="CT149" s="13"/>
-      <c r="CU149" s="1"/>
-      <c r="CV149" s="1"/>
-      <c r="CW149" s="13"/>
-      <c r="CX149" s="13"/>
-      <c r="CY149" s="13"/>
-      <c r="CZ149" s="13"/>
-      <c r="DA149" s="13"/>
-      <c r="DB149" s="13"/>
-      <c r="DC149" s="13"/>
-      <c r="DD149" s="13"/>
-      <c r="DE149" s="13"/>
-      <c r="DF149" s="13"/>
-      <c r="DG149" s="13"/>
-      <c r="DH149" s="13"/>
-      <c r="DI149" s="13"/>
-      <c r="DJ149" s="13"/>
-      <c r="DK149" s="13"/>
-      <c r="DL149" s="13"/>
-      <c r="DM149" s="13"/>
-      <c r="DN149" s="13"/>
-      <c r="DO149" s="13"/>
-      <c r="DP149" s="13"/>
-      <c r="DQ149" s="13"/>
-      <c r="DR149" s="13"/>
-      <c r="DS149" s="13"/>
-      <c r="DT149" s="13"/>
-      <c r="DU149" s="13"/>
-      <c r="DV149" s="13"/>
-      <c r="DW149" s="13"/>
-      <c r="DX149" s="13"/>
-      <c r="DY149" s="13"/>
-      <c r="DZ149" s="13"/>
-      <c r="EA149" s="13"/>
-      <c r="EB149" s="13"/>
-      <c r="EC149" s="13"/>
-      <c r="ED149" s="13"/>
-      <c r="EE149" s="13"/>
-      <c r="EF149" s="13"/>
-      <c r="EG149" s="13"/>
-      <c r="EH149" s="13"/>
-      <c r="EI149" s="1"/>
-      <c r="EJ149" s="1"/>
-      <c r="EK149" s="1"/>
-    </row>
-    <row r="150" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
-      <c r="AA150" s="1"/>
-      <c r="AB150" s="1"/>
-      <c r="AC150" s="1"/>
-      <c r="AD150" s="1"/>
-      <c r="AE150" s="1"/>
-      <c r="AF150" s="1"/>
-      <c r="AG150" s="1"/>
-      <c r="AH150" s="1"/>
-      <c r="AI150" s="1"/>
-      <c r="AJ150" s="1"/>
-      <c r="AK150" s="1"/>
-      <c r="AL150" s="1"/>
-      <c r="AM150" s="1"/>
-      <c r="AN150" s="1"/>
-      <c r="AO150" s="1"/>
-      <c r="AP150" s="1"/>
-      <c r="AQ150" s="1"/>
-      <c r="AR150" s="1"/>
-      <c r="AS150" s="1"/>
-      <c r="AT150" s="1"/>
-      <c r="AU150" s="1"/>
-      <c r="AV150" s="1"/>
-      <c r="AW150" s="1"/>
-      <c r="AX150" s="1"/>
-      <c r="AY150" s="1"/>
-      <c r="AZ150" s="1"/>
-      <c r="BA150" s="1"/>
-      <c r="BB150" s="1"/>
-      <c r="BC150" s="1"/>
-      <c r="BD150" s="1"/>
-      <c r="BE150" s="1"/>
-      <c r="BF150" s="1"/>
-      <c r="BG150" s="1"/>
-      <c r="BH150" s="1"/>
-      <c r="BI150" s="1"/>
-      <c r="BJ150" s="1"/>
-      <c r="BK150" s="1"/>
-      <c r="BL150" s="1"/>
-      <c r="BM150" s="1"/>
-      <c r="BN150" s="1"/>
-      <c r="BO150" s="1"/>
-      <c r="BP150" s="1"/>
-      <c r="BQ150" s="1"/>
-      <c r="BR150" s="1"/>
-      <c r="BS150" s="1"/>
-      <c r="BT150" s="1"/>
-      <c r="BU150" s="1"/>
-      <c r="BV150" s="1"/>
-      <c r="BW150" s="1"/>
-      <c r="BX150" s="1"/>
-      <c r="BY150" s="1"/>
-      <c r="BZ150" s="1"/>
-      <c r="CA150" s="1"/>
-      <c r="CB150" s="1"/>
-      <c r="CC150" s="1"/>
-      <c r="CD150" s="1"/>
-      <c r="CE150" s="1"/>
-      <c r="CF150" s="1"/>
-      <c r="CG150" s="1"/>
-      <c r="CH150" s="1"/>
-      <c r="CI150" s="1"/>
-      <c r="CJ150" s="1"/>
-      <c r="CK150" s="1"/>
-      <c r="CL150" s="1"/>
-      <c r="CM150" s="1"/>
-      <c r="CN150" s="1"/>
-      <c r="CO150" s="1"/>
-      <c r="CP150" s="1"/>
-      <c r="CQ150" s="1"/>
-      <c r="CR150" s="1"/>
-      <c r="CS150" s="1"/>
-      <c r="CT150" s="1"/>
-      <c r="CU150" s="1"/>
-      <c r="CV150" s="1"/>
-      <c r="CW150" s="1"/>
-      <c r="CX150" s="1"/>
-      <c r="CY150" s="1"/>
-      <c r="CZ150" s="1"/>
-      <c r="DA150" s="1"/>
-      <c r="DB150" s="1"/>
-      <c r="DC150" s="1"/>
-      <c r="DD150" s="1"/>
-      <c r="DE150" s="1"/>
-      <c r="DF150" s="1"/>
-      <c r="DG150" s="1"/>
-      <c r="DH150" s="1"/>
-      <c r="DI150" s="1"/>
-      <c r="DJ150" s="1"/>
-      <c r="DK150" s="1"/>
-      <c r="DL150" s="1"/>
-      <c r="DM150" s="1"/>
-      <c r="DN150" s="1"/>
-      <c r="DO150" s="1"/>
-      <c r="DP150" s="1"/>
-      <c r="DQ150" s="1"/>
-      <c r="DR150" s="1"/>
-      <c r="DS150" s="1"/>
-      <c r="DT150" s="1"/>
-      <c r="DU150" s="1"/>
-      <c r="DV150" s="1"/>
-      <c r="DW150" s="1"/>
-      <c r="DX150" s="1"/>
-      <c r="DY150" s="1"/>
-      <c r="DZ150" s="1"/>
-      <c r="EA150" s="1"/>
-      <c r="EB150" s="1"/>
-      <c r="EC150" s="1"/>
-      <c r="ED150" s="1"/>
-      <c r="EE150" s="1"/>
-      <c r="EF150" s="1"/>
-      <c r="EG150" s="1"/>
-      <c r="EH150" s="1"/>
-      <c r="EI150" s="1"/>
-      <c r="EJ150" s="1"/>
-      <c r="EK150" s="1"/>
-    </row>
-    <row r="151" spans="1:141" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
-      <c r="Y151" s="1"/>
-      <c r="Z151" s="1"/>
-      <c r="AA151" s="1"/>
-      <c r="AB151" s="1"/>
-      <c r="AC151" s="1"/>
-      <c r="AD151" s="1"/>
-      <c r="AE151" s="1"/>
-      <c r="AF151" s="1"/>
-      <c r="AG151" s="1"/>
-      <c r="AH151" s="1"/>
-      <c r="AI151" s="1"/>
-      <c r="AJ151" s="1"/>
-      <c r="AK151" s="1"/>
-      <c r="AL151" s="1"/>
-      <c r="AM151" s="1"/>
-      <c r="AN151" s="1"/>
-      <c r="AO151" s="1"/>
-      <c r="AP151" s="1"/>
-      <c r="AQ151" s="1"/>
-      <c r="AR151" s="1"/>
-      <c r="AS151" s="1"/>
-      <c r="AT151" s="1"/>
-      <c r="AU151" s="1"/>
-      <c r="AV151" s="1"/>
-      <c r="AW151" s="1"/>
-      <c r="AX151" s="1"/>
-      <c r="AY151" s="1"/>
-      <c r="AZ151" s="1"/>
-      <c r="BA151" s="1"/>
-      <c r="BB151" s="1"/>
-      <c r="BC151" s="1"/>
-      <c r="BD151" s="1"/>
-      <c r="BE151" s="1"/>
-      <c r="BF151" s="1"/>
-      <c r="BG151" s="1"/>
-      <c r="BH151" s="1"/>
-      <c r="BI151" s="1"/>
-      <c r="BJ151" s="1"/>
-      <c r="BK151" s="1"/>
-      <c r="BL151" s="1"/>
-      <c r="BM151" s="1"/>
-      <c r="BN151" s="1"/>
-      <c r="BO151" s="1"/>
-      <c r="BP151" s="1"/>
-      <c r="BQ151" s="1"/>
-      <c r="BR151" s="1"/>
-      <c r="BS151" s="1"/>
-      <c r="BT151" s="1"/>
-      <c r="BU151" s="1"/>
-      <c r="BV151" s="1"/>
-      <c r="BW151" s="1"/>
-      <c r="BX151" s="1"/>
-      <c r="BY151" s="1"/>
-      <c r="BZ151" s="1"/>
-      <c r="CA151" s="1"/>
-      <c r="CB151" s="1"/>
-      <c r="CC151" s="1"/>
-      <c r="CD151" s="1"/>
-      <c r="CE151" s="1"/>
-      <c r="CF151" s="1"/>
-      <c r="CG151" s="1"/>
-      <c r="CH151" s="1"/>
-      <c r="CI151" s="1"/>
-      <c r="CJ151" s="1"/>
-      <c r="CK151" s="1"/>
-      <c r="CL151" s="1"/>
-      <c r="CM151" s="1"/>
-      <c r="CN151" s="1"/>
-      <c r="CO151" s="1"/>
-      <c r="CP151" s="1"/>
-      <c r="CQ151" s="1"/>
-      <c r="CR151" s="1"/>
-      <c r="CS151" s="1"/>
-      <c r="CT151" s="1"/>
-      <c r="CU151" s="1"/>
-      <c r="CV151" s="1"/>
-      <c r="CW151" s="1"/>
-      <c r="CX151" s="1"/>
-      <c r="CY151" s="1"/>
-      <c r="CZ151" s="1"/>
-      <c r="DA151" s="1"/>
-      <c r="DB151" s="1"/>
-      <c r="DC151" s="1"/>
-      <c r="DD151" s="1"/>
-      <c r="DE151" s="1"/>
-      <c r="DF151" s="1"/>
-      <c r="DG151" s="1"/>
-      <c r="DH151" s="1"/>
-      <c r="DI151" s="1"/>
-      <c r="DJ151" s="1"/>
-      <c r="DK151" s="1"/>
-      <c r="DL151" s="1"/>
-      <c r="DM151" s="1"/>
-      <c r="DN151" s="1"/>
-      <c r="DO151" s="1"/>
-      <c r="DP151" s="1"/>
-      <c r="DQ151" s="1"/>
-      <c r="DR151" s="1"/>
-      <c r="DS151" s="1"/>
-      <c r="DT151" s="1"/>
-      <c r="DU151" s="1"/>
-      <c r="DV151" s="1"/>
-      <c r="DW151" s="1"/>
-      <c r="DX151" s="1"/>
-      <c r="DY151" s="1"/>
-      <c r="DZ151" s="1"/>
-      <c r="EA151" s="1"/>
-      <c r="EB151" s="1"/>
-      <c r="EC151" s="1"/>
-      <c r="ED151" s="1"/>
-      <c r="EE151" s="1"/>
-      <c r="EF151" s="1"/>
-      <c r="EG151" s="1"/>
-      <c r="EH151" s="1"/>
-      <c r="EI151" s="1"/>
-      <c r="EJ151" s="1"/>
-      <c r="EK151" s="1"/>
-    </row>
-    <row r="152" spans="1:141" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="17">
+    <row r="146" spans="1:130" ht="27.95" customHeight="1">
+      <c r="A146" s="17">
         <v>1</v>
       </c>
-      <c r="B152" s="17">
-        <v>2</v>
-      </c>
-      <c r="C152" s="17">
+      <c r="B146" s="17">
+        <v>2</v>
+      </c>
+      <c r="C146" s="17">
         <v>3</v>
       </c>
-      <c r="D152" s="17">
+      <c r="D146" s="17">
         <v>4</v>
       </c>
-      <c r="E152" s="17">
+      <c r="E146" s="17">
         <v>5</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F146" s="17">
         <v>6</v>
       </c>
-      <c r="G152" s="17">
+      <c r="G146" s="17">
         <v>7</v>
       </c>
-      <c r="H152" s="17">
+      <c r="H146" s="17">
         <v>8</v>
       </c>
-      <c r="I152" s="17">
+      <c r="I146" s="17">
         <v>9</v>
       </c>
-      <c r="J152" s="17">
+      <c r="J146" s="17">
         <v>10</v>
       </c>
-      <c r="K152" s="17">
+      <c r="K146" s="17">
         <v>11</v>
       </c>
-      <c r="L152" s="17">
+      <c r="L146" s="17">
         <v>12</v>
       </c>
-      <c r="M152" s="17">
+      <c r="M146" s="17">
         <v>13</v>
       </c>
-      <c r="N152" s="17">
+      <c r="N146" s="17">
         <v>14</v>
       </c>
-      <c r="O152" s="17">
+      <c r="O146" s="17">
         <v>15</v>
       </c>
-      <c r="P152" s="17">
+      <c r="P146" s="17">
         <v>16</v>
       </c>
-      <c r="Q152" s="17">
+      <c r="Q146" s="17">
         <v>17</v>
       </c>
-      <c r="R152" s="17">
+      <c r="R146" s="17">
         <v>18</v>
       </c>
-      <c r="S152" s="17">
+      <c r="S146" s="17">
         <v>19</v>
       </c>
-      <c r="T152" s="17">
+      <c r="T146" s="17">
         <v>20</v>
       </c>
-      <c r="U152" s="17">
+      <c r="U146" s="17">
         <v>21</v>
       </c>
-      <c r="V152" s="17">
+      <c r="V146" s="17">
         <v>22</v>
       </c>
-      <c r="W152" s="17">
+      <c r="W146" s="17">
         <v>23</v>
       </c>
-      <c r="X152" s="17">
+      <c r="X146" s="17">
         <v>24</v>
       </c>
-      <c r="Y152" s="17">
+      <c r="Y146" s="17">
         <v>25</v>
       </c>
-      <c r="Z152" s="17">
+      <c r="Z146" s="17">
         <v>26</v>
       </c>
-      <c r="AA152" s="17">
+      <c r="AA146" s="17">
         <v>27</v>
       </c>
-      <c r="AB152" s="17">
+      <c r="AB146" s="17">
         <v>28</v>
       </c>
-      <c r="AC152" s="17">
+      <c r="AC146" s="17">
         <v>29</v>
       </c>
-      <c r="AD152" s="17">
+      <c r="AD146" s="17">
         <v>30</v>
       </c>
-      <c r="AE152" s="17">
+      <c r="AE146" s="17">
         <v>31</v>
       </c>
-      <c r="AF152" s="17">
+      <c r="AF146" s="17">
         <v>32</v>
       </c>
-      <c r="AG152" s="17">
+      <c r="AG146" s="17">
         <v>33</v>
       </c>
-      <c r="AH152" s="17">
+      <c r="AH146" s="17">
         <v>34</v>
       </c>
-      <c r="AI152" s="17">
+      <c r="AI146" s="17">
         <v>35</v>
       </c>
-      <c r="AJ152" s="17">
+      <c r="AJ146" s="17">
         <v>36</v>
       </c>
-      <c r="AK152" s="17">
+      <c r="AK146" s="17">
         <v>37</v>
       </c>
-      <c r="AL152" s="17">
+      <c r="AL146" s="17">
         <v>38</v>
       </c>
-      <c r="AM152" s="17">
+      <c r="AM146" s="17">
         <v>39</v>
       </c>
-      <c r="AN152" s="17">
+      <c r="AN146" s="17">
         <v>40</v>
       </c>
-      <c r="AO152" s="17">
+      <c r="AO146" s="17">
         <v>41</v>
       </c>
-      <c r="AP152" s="17">
+      <c r="AP146" s="17">
         <v>42</v>
       </c>
-      <c r="AQ152" s="17">
+      <c r="AQ146" s="17">
         <v>43</v>
       </c>
-      <c r="AR152" s="17">
+      <c r="AR146" s="17">
         <v>44</v>
       </c>
-      <c r="AS152" s="17">
+      <c r="AS146" s="17">
         <v>45</v>
       </c>
-      <c r="AT152" s="17">
+      <c r="AT146" s="17">
         <v>46</v>
       </c>
-      <c r="AU152" s="17">
+      <c r="AU146" s="17">
         <v>47</v>
       </c>
-      <c r="AV152" s="17">
+      <c r="AV146" s="17">
         <v>48</v>
       </c>
-      <c r="AW152" s="17">
+      <c r="AW146" s="17">
         <v>49</v>
       </c>
-      <c r="AX152" s="17">
+      <c r="AX146" s="17">
         <v>50</v>
       </c>
-      <c r="AY152" s="17">
+      <c r="AY146" s="17">
         <v>51</v>
       </c>
-      <c r="AZ152" s="17">
+      <c r="AZ146" s="17">
         <v>52</v>
       </c>
-      <c r="BA152" s="17">
+      <c r="BA146" s="17">
         <v>53</v>
       </c>
-      <c r="BB152" s="17">
+      <c r="BB146" s="17">
         <v>54</v>
       </c>
-      <c r="BC152" s="17">
+      <c r="BC146" s="17">
         <v>55</v>
       </c>
-      <c r="BD152" s="17">
+      <c r="BD146" s="17">
         <v>56</v>
       </c>
-      <c r="BE152" s="17">
+      <c r="BE146" s="17">
         <v>57</v>
       </c>
-      <c r="BF152" s="17">
+      <c r="BF146" s="17">
         <v>58</v>
       </c>
-      <c r="BG152" s="17">
+      <c r="BG146" s="17">
         <v>59</v>
       </c>
-      <c r="BH152" s="17">
+      <c r="BH146" s="17">
         <v>60</v>
       </c>
-      <c r="BI152" s="17">
+      <c r="BI146" s="17">
         <v>61</v>
       </c>
-      <c r="BJ152" s="17">
+      <c r="BJ146" s="17">
         <v>62</v>
       </c>
-      <c r="BK152" s="17">
+      <c r="BK146" s="17">
         <v>63</v>
       </c>
-      <c r="BL152" s="17">
+      <c r="BL146" s="17">
         <v>64</v>
       </c>
-      <c r="BM152" s="17">
+      <c r="BM146" s="17">
         <v>65</v>
       </c>
-      <c r="BN152" s="17">
+      <c r="BN146" s="17">
         <v>66</v>
       </c>
-      <c r="BO152" s="17">
+      <c r="BO146" s="17">
         <v>67</v>
       </c>
-      <c r="BP152" s="17">
+      <c r="BP146" s="17">
         <v>68</v>
       </c>
-      <c r="BQ152" s="17">
+      <c r="BQ146" s="17">
         <v>69</v>
       </c>
-      <c r="BR152" s="17">
+      <c r="BR146" s="17">
         <v>70</v>
       </c>
-      <c r="BS152" s="17">
+      <c r="BS146" s="17">
         <v>71</v>
       </c>
-      <c r="BT152" s="17">
+      <c r="BT146" s="17">
         <v>72</v>
       </c>
-      <c r="BU152" s="17">
+      <c r="BU146" s="17">
         <v>73</v>
       </c>
-      <c r="BV152" s="17">
+      <c r="BV146" s="17">
         <v>74</v>
       </c>
-      <c r="BW152" s="17">
+      <c r="BW146" s="17">
         <v>75</v>
       </c>
-      <c r="BX152" s="17">
+      <c r="BX146" s="17">
         <v>76</v>
       </c>
-      <c r="BY152" s="17">
+      <c r="BY146" s="17">
         <v>77</v>
       </c>
-      <c r="BZ152" s="17">
+      <c r="BZ146" s="17">
         <v>78</v>
       </c>
-      <c r="CA152" s="17">
+      <c r="CA146" s="17">
         <v>79</v>
       </c>
-      <c r="CB152" s="17">
+      <c r="CB146" s="17">
         <v>80</v>
       </c>
-      <c r="CC152" s="17">
+      <c r="CC146" s="17">
         <v>81</v>
       </c>
-      <c r="CD152" s="17">
+      <c r="CD146" s="17">
         <v>82</v>
       </c>
-      <c r="CE152" s="17">
+      <c r="CE146" s="17">
         <v>83</v>
       </c>
-      <c r="CF152" s="17">
+      <c r="CF146" s="17">
         <v>84</v>
       </c>
-      <c r="CG152" s="17">
+      <c r="CG146" s="17">
         <v>85</v>
       </c>
-      <c r="CH152" s="17">
+      <c r="CH146" s="17">
         <v>86</v>
       </c>
-      <c r="CI152" s="17">
+      <c r="CI146" s="17">
         <v>87</v>
       </c>
-      <c r="CJ152" s="17">
+      <c r="CJ146" s="17">
         <v>88</v>
       </c>
-      <c r="CK152" s="17">
+      <c r="CK146" s="17">
         <v>89</v>
       </c>
-      <c r="CL152" s="17">
+      <c r="CL146" s="17">
         <v>90</v>
       </c>
-      <c r="CM152" s="17">
+      <c r="CM146" s="17">
         <v>91</v>
       </c>
-      <c r="CN152" s="17">
+      <c r="CN146" s="17">
         <v>92</v>
       </c>
-      <c r="CO152" s="17">
+      <c r="CO146" s="17">
         <v>93</v>
       </c>
-      <c r="CP152" s="17">
+      <c r="CP146" s="17">
         <v>94</v>
       </c>
-      <c r="CQ152" s="17">
+      <c r="CQ146" s="17">
         <v>95</v>
       </c>
-      <c r="CR152" s="17">
+      <c r="CR146" s="17">
         <v>96</v>
       </c>
-      <c r="CS152" s="17">
+      <c r="CS146" s="17">
         <v>97</v>
       </c>
-      <c r="CT152" s="17">
+      <c r="CT146" s="17">
         <v>98</v>
       </c>
-      <c r="CU152" s="17">
+      <c r="CU146" s="17">
         <v>99</v>
       </c>
-      <c r="CV152" s="17">
+      <c r="CV146" s="17">
         <v>100</v>
       </c>
-      <c r="CW152" s="17">
+      <c r="CW146" s="17">
         <v>101</v>
       </c>
-      <c r="CX152" s="17">
+      <c r="CX146" s="17">
         <v>102</v>
       </c>
-      <c r="CY152" s="17">
+      <c r="CY146" s="17">
         <v>103</v>
       </c>
-      <c r="CZ152" s="17">
+      <c r="CZ146" s="17">
         <v>104</v>
       </c>
-      <c r="DA152" s="17">
+      <c r="DA146" s="17">
         <v>105</v>
       </c>
-      <c r="DB152" s="17">
+      <c r="DB146" s="17">
         <v>106</v>
       </c>
-      <c r="DC152" s="17">
+      <c r="DC146" s="17">
         <v>107</v>
       </c>
-      <c r="DD152" s="17">
+      <c r="DD146" s="17">
         <v>108</v>
       </c>
-      <c r="DE152" s="17">
+      <c r="DE146" s="17">
         <v>109</v>
       </c>
-      <c r="DF152" s="17">
+      <c r="DF146" s="17">
         <v>110</v>
       </c>
-      <c r="DG152" s="17">
+      <c r="DG146" s="17">
         <v>111</v>
       </c>
-      <c r="DH152" s="17">
+      <c r="DH146" s="17">
         <v>112</v>
       </c>
-      <c r="DI152" s="17">
+      <c r="DI146" s="17">
         <v>113</v>
       </c>
-      <c r="DJ152" s="17">
+      <c r="DJ146" s="17">
         <v>114</v>
       </c>
-      <c r="DK152" s="17">
+      <c r="DK146" s="17">
         <v>115</v>
       </c>
-      <c r="DL152" s="17">
+      <c r="DL146" s="17">
         <v>116</v>
       </c>
-      <c r="DM152" s="17">
+      <c r="DM146" s="17">
         <v>117</v>
       </c>
-      <c r="DN152" s="17">
+      <c r="DN146" s="17">
         <v>118</v>
       </c>
-      <c r="DO152" s="17">
+      <c r="DO146" s="17">
         <v>119</v>
       </c>
-      <c r="DP152" s="17">
+      <c r="DP146" s="17">
         <v>120</v>
       </c>
-      <c r="DQ152" s="17">
+      <c r="DQ146" s="17">
         <v>121</v>
       </c>
-      <c r="DR152" s="17">
+      <c r="DR146" s="17">
         <v>122</v>
       </c>
-      <c r="DS152" s="17">
+      <c r="DS146" s="17">
         <v>123</v>
       </c>
-      <c r="DT152" s="17">
+      <c r="DT146" s="17">
         <v>124</v>
       </c>
-      <c r="DU152" s="17">
+      <c r="DU146" s="17">
         <v>125</v>
       </c>
-      <c r="DV152" s="17">
+      <c r="DV146" s="17">
         <v>126</v>
       </c>
-      <c r="DW152" s="17">
+      <c r="DW146" s="17">
         <v>127</v>
       </c>
-      <c r="DX152" s="17">
+      <c r="DX146" s="17">
         <v>128</v>
       </c>
-      <c r="DY152" s="17">
+      <c r="DY146" s="17">
         <v>129</v>
       </c>
-      <c r="DZ152" s="17">
+      <c r="DZ146" s="17">
         <v>130</v>
-      </c>
-      <c r="EA152" s="17">
-        <v>131</v>
-      </c>
-      <c r="EB152" s="17">
-        <v>132</v>
-      </c>
-      <c r="EC152" s="17">
-        <v>133</v>
-      </c>
-      <c r="ED152" s="17">
-        <v>134</v>
-      </c>
-      <c r="EE152" s="17">
-        <v>135</v>
-      </c>
-      <c r="EF152" s="17">
-        <v>136</v>
-      </c>
-      <c r="EG152" s="17">
-        <v>137</v>
-      </c>
-      <c r="EH152" s="17">
-        <v>138</v>
-      </c>
-      <c r="EI152" s="17">
-        <v>139</v>
-      </c>
-      <c r="EJ152" s="17">
-        <v>140</v>
-      </c>
-      <c r="EK152" s="17">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:DZ145">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:EJ150 B2:EK151">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EK1">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37994,12 +35226,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="5" max="5" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5">
       <c r="D6" t="s">
         <v>1</v>
       </c>
@@ -38007,7 +35239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5">
       <c r="C7">
         <v>0</v>
       </c>
@@ -38016,7 +35248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5">
       <c r="C8">
         <v>1</v>
       </c>
@@ -38025,7 +35257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5">
       <c r="C9">
         <v>2</v>
       </c>
@@ -38034,7 +35266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5">
       <c r="C10">
         <v>3</v>
       </c>
@@ -38043,7 +35275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5">
       <c r="C11">
         <v>4</v>
       </c>
@@ -38052,7 +35284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5">
       <c r="C12">
         <v>5</v>
       </c>
@@ -38061,7 +35293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5">
       <c r="C13">
         <v>6</v>
       </c>
@@ -38070,7 +35302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5">
       <c r="C14">
         <v>7</v>
       </c>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD51B66-D939-41DB-ACCD-76CD0FE386AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B49D9F-9EA8-4AFA-8DE6-2144E7AA55F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
   </bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7A455-E458-4910-86BA-8861EB05555A}">
   <dimension ref="A1:FL146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO68" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="EC78" sqref="EC78"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="ES38" sqref="ES38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1"/>
@@ -4199,7 +4199,9 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="R15" s="13">
+        <v>3</v>
+      </c>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
@@ -4918,7 +4920,9 @@
       <c r="BT19" s="13"/>
       <c r="BU19" s="13"/>
       <c r="BV19" s="13"/>
-      <c r="BW19" s="13"/>
+      <c r="BW19" s="13">
+        <v>3</v>
+      </c>
       <c r="BX19" s="13"/>
       <c r="BY19" s="13"/>
       <c r="BZ19" s="13"/>
@@ -6959,7 +6963,9 @@
       <c r="AB29" s="13"/>
       <c r="AC29" s="13"/>
       <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
+      <c r="AE29" s="13">
+        <v>3</v>
+      </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
@@ -9930,7 +9936,9 @@
       <c r="DO40" s="13"/>
       <c r="DP40" s="13"/>
       <c r="DQ40" s="13"/>
-      <c r="DR40" s="13"/>
+      <c r="DR40" s="13">
+        <v>3</v>
+      </c>
       <c r="DS40" s="13"/>
       <c r="DT40" s="13"/>
       <c r="DU40" s="13"/>
@@ -21895,7 +21903,9 @@
       <c r="DP93" s="13"/>
       <c r="DQ93" s="13"/>
       <c r="DR93" s="13"/>
-      <c r="DS93" s="13"/>
+      <c r="DS93" s="13">
+        <v>3</v>
+      </c>
       <c r="DT93" s="13"/>
       <c r="DU93" s="13"/>
       <c r="DV93" s="13"/>
@@ -22156,7 +22166,9 @@
       <c r="AC95" s="13"/>
       <c r="AD95" s="13"/>
       <c r="AE95" s="13"/>
-      <c r="AF95" s="13"/>
+      <c r="AF95" s="13">
+        <v>3</v>
+      </c>
       <c r="AG95" s="13"/>
       <c r="AH95" s="13">
         <v>2</v>
@@ -26462,7 +26474,9 @@
       <c r="DE111" s="13"/>
       <c r="DF111" s="13"/>
       <c r="DG111" s="13"/>
-      <c r="DH111" s="13"/>
+      <c r="DH111" s="13">
+        <v>3</v>
+      </c>
       <c r="DI111" s="13"/>
       <c r="DJ111" s="13"/>
       <c r="DK111" s="13"/>
@@ -31804,7 +31818,9 @@
       <c r="BN136" s="13"/>
       <c r="BO136" s="13"/>
       <c r="BP136" s="13"/>
-      <c r="BQ136" s="13"/>
+      <c r="BQ136" s="13">
+        <v>3</v>
+      </c>
       <c r="BR136" s="13"/>
       <c r="BS136" s="13"/>
       <c r="BT136" s="13"/>

--- a/Stage.xlsx
+++ b/Stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\endgame\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B49D9F-9EA8-4AFA-8DE6-2144E7AA55F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225911FA-07EF-474C-984B-A5E359055983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89506570-A0D9-49C4-B87E-11C94CE9A7A2}"/>
   </bookViews>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7A455-E458-4910-86BA-8861EB05555A}">
   <dimension ref="A1:FL146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="ES38" sqref="ES38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="BE71" sqref="BE71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="27.95" customHeight="1"/>
@@ -16750,7 +16750,9 @@
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
       <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
+      <c r="R75" s="10">
+        <v>4</v>
+      </c>
       <c r="S75" s="13">
         <v>2</v>
       </c>
@@ -17060,9 +17062,7 @@
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
       <c r="Q76" s="13"/>
-      <c r="R76" s="10">
-        <v>4</v>
-      </c>
+      <c r="R76" s="10"/>
       <c r="S76" s="13">
         <v>2</v>
       </c>
